--- a/src/ExcelsStorageRequis/plantillas/maquinaria/NoFactura.xlsx
+++ b/src/ExcelsStorageRequis/plantillas/maquinaria/NoFactura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\src\ExcelsStorageRequis\plantillas\maquinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61DF28BE-14F8-4609-9F5D-0FB6D3594A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D91109-0066-430C-B88A-3E83D4BCFF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="2895" windowWidth="28800" windowHeight="15345" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
+    <workbookView xWindow="3600" yWindow="2565" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
   </bookViews>
   <sheets>
     <sheet name="requi" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
   <si>
     <t>Gerente General</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>NO FACTURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA ELECTRONICA </t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1485,7 @@
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1774,21 +1777,102 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1798,86 +1882,188 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1889,12 +2075,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1924,194 +2104,11 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2755,7 +2752,7 @@
   </sheetPr>
   <dimension ref="B2:U37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="V56" sqref="V56"/>
     </sheetView>
   </sheetViews>
@@ -2783,70 +2780,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" customHeight="1">
-      <c r="F2" s="161" t="s">
+      <c r="F2" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
       <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="35.25" customHeight="1">
-      <c r="F3" s="162" t="s">
+      <c r="F3" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
     <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="164" t="s">
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="165"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="135"/>
       <c r="O5" s="29"/>
     </row>
     <row r="6" spans="2:15" ht="15.75">
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
       <c r="H7" s="27" t="s">
         <v>38</v>
       </c>
@@ -2854,17 +2851,17 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="159" t="s">
+      <c r="M7" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
     </row>
     <row r="8" spans="2:15" ht="12.75" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
       <c r="H8" s="22"/>
       <c r="I8" s="21" t="s">
         <v>36</v>
@@ -2874,10 +2871,10 @@
       <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
       <c r="H9" s="22"/>
       <c r="I9" s="21" t="s">
         <v>34</v>
@@ -2902,10 +2899,10 @@
       <c r="B11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2937,52 +2934,52 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="141" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="139" t="s">
+      <c r="D17" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="139" t="s">
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="155" t="s">
+      <c r="J17" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="155" t="s">
+      <c r="K17" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="139" t="s">
+      <c r="L17" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="140"/>
-      <c r="N17" s="140"/>
-      <c r="O17" s="141"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="145"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="156"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="142"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="144"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="148"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="18"/>
@@ -3005,23 +3002,23 @@
         <v>1</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="147"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="151"/>
       <c r="I20" s="17"/>
       <c r="J20" s="34"/>
       <c r="K20" s="16"/>
       <c r="L20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="149"/>
-      <c r="N20" s="149"/>
-      <c r="O20" s="150"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="157"/>
       <c r="R20" s="1"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
+      <c r="T20" s="152"/>
+      <c r="U20" s="152"/>
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="12">
@@ -3029,24 +3026,24 @@
         <v>2</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="135"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="155"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="152"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="159"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
+      <c r="T21" s="152"/>
+      <c r="U21" s="152"/>
     </row>
     <row r="22" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="12">
@@ -3054,25 +3051,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="135"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="155"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
+      <c r="T22" s="152"/>
+      <c r="U22" s="152"/>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="12">
@@ -3080,24 +3077,24 @@
         <v>4</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="135"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="155"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="152"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="159"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
+      <c r="T23" s="152"/>
+      <c r="U23" s="152"/>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="12">
@@ -3105,24 +3102,24 @@
         <v>5</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="135"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="155"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="152"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="159"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="152"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="12">
@@ -3130,24 +3127,24 @@
         <v>6</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="135"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="155"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="154"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="161"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="148"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="152"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="12">
@@ -3169,11 +3166,11 @@
         <v>8</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="135"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="155"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -3188,11 +3185,11 @@
         <v>9</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="135"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="155"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -3221,11 +3218,11 @@
         <v>11</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="135"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="155"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3240,13 +3237,13 @@
         <v>12</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="136" t="s">
+      <c r="D31" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="138"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="165"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -3277,10 +3274,10 @@
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="2:13" s="1" customFormat="1">
-      <c r="B33" s="131" t="s">
+      <c r="B33" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="131"/>
+      <c r="C33" s="162"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
         <v>8</v>
@@ -3296,10 +3293,10 @@
       </c>
     </row>
     <row r="36" spans="2:13" s="1" customFormat="1">
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="131"/>
+      <c r="C36" s="162"/>
       <c r="F36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3314,10 +3311,10 @@
       </c>
     </row>
     <row r="37" spans="2:13" s="1" customFormat="1">
-      <c r="B37" s="132" t="s">
+      <c r="B37" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="132"/>
+      <c r="C37" s="139"/>
       <c r="F37" s="1" t="s">
         <v>2</v>
       </c>
@@ -3330,21 +3327,14 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
     <mergeCell ref="L17:O18"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="T20:U25"/>
@@ -3358,14 +3348,21 @@
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="M25:O25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -3380,8 +3377,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:N97"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3421,19 +3418,19 @@
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="224" t="s">
+      <c r="E3" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="225" t="s">
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="226"/>
+      <c r="M3" s="168"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14">
@@ -3459,95 +3456,95 @@
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="227" t="s">
+      <c r="L5" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="228"/>
+      <c r="M5" s="170"/>
       <c r="N5" s="54"/>
     </row>
     <row r="6" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B6" s="229" t="s">
+      <c r="B6" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="230" t="s">
+      <c r="C6" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="234" t="s">
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="235"/>
-      <c r="I6" s="235"/>
-      <c r="J6" s="235"/>
-      <c r="K6" s="236"/>
-      <c r="L6" s="237">
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="180">
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="M6" s="238"/>
+      <c r="M6" s="181"/>
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="215"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="239">
+      <c r="B7" s="172"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="182">
         <f>requi!K20</f>
         <v>0</v>
       </c>
-      <c r="H7" s="240"/>
-      <c r="I7" s="240"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="241"/>
-      <c r="L7" s="242" t="s">
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="243"/>
+      <c r="M7" s="186"/>
       <c r="N7" s="46"/>
     </row>
     <row r="8" spans="2:14" ht="12.95" customHeight="1">
-      <c r="B8" s="214" t="s">
+      <c r="B8" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="216" t="s">
+      <c r="C8" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="220" t="s">
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="216"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="216"/>
-      <c r="K8" s="217"/>
-      <c r="L8" s="222">
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="194">
         <f>requi!C11</f>
         <v>0</v>
       </c>
-      <c r="M8" s="223"/>
+      <c r="M8" s="195"/>
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="215"/>
-      <c r="C9" s="218"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="219"/>
-      <c r="L9" s="208" t="s">
+      <c r="B9" s="172"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="209"/>
+      <c r="M9" s="197"/>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14">
@@ -3563,62 +3560,64 @@
       <c r="G10" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="202">
+      <c r="H10" s="198">
         <f>requi!M20</f>
         <v>0</v>
       </c>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="204">
+      <c r="I10" s="198"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="200">
         <f>requi!O5</f>
         <v>0</v>
       </c>
-      <c r="M10" s="205"/>
+      <c r="M10" s="201"/>
       <c r="N10" s="61"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="206">
+      <c r="C11" s="202">
         <f>requi!C9</f>
         <v>0</v>
       </c>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="207"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="203"/>
       <c r="G11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="212"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="213"/>
-      <c r="L11" s="208" t="s">
+      <c r="H11" s="198" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="209"/>
+      <c r="M11" s="197"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="206"/>
-      <c r="D12" s="206"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="207"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="202"/>
+      <c r="F12" s="203"/>
       <c r="G12" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="202" t="s">
+      <c r="H12" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="203"/>
-      <c r="L12" s="210"/>
-      <c r="M12" s="211"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="205"/>
     </row>
     <row r="13" spans="2:14" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="B13" s="62"/>
@@ -3629,13 +3628,13 @@
       <c r="G13" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="197">
+      <c r="H13" s="240">
         <f>H29</f>
         <v>0</v>
       </c>
-      <c r="I13" s="197"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="198"/>
+      <c r="I13" s="240"/>
+      <c r="J13" s="240"/>
+      <c r="K13" s="241"/>
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
       <c r="N13" s="46"/>
@@ -3656,14 +3655,14 @@
       <c r="E15" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="199" t="s">
+      <c r="F15" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="201"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="208"/>
+      <c r="K15" s="209"/>
       <c r="L15" s="70" t="s">
         <v>63</v>
       </c>
@@ -3688,15 +3687,15 @@
         <f>requi!C20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="196">
+      <c r="F16" s="206">
         <f>requi!D20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="196"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="196"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="206"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M27" si="0">L16*C16</f>
@@ -3720,15 +3719,15 @@
         <f>requi!C21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="196">
+      <c r="F17" s="206">
         <f>requi!D21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="196"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="196"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="206"/>
       <c r="L17" s="80"/>
       <c r="M17" s="76">
         <f t="shared" si="0"/>
@@ -3752,15 +3751,15 @@
         <f>requi!C22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="196">
+      <c r="F18" s="206">
         <f>requi!D22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="196"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="196"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="206"/>
       <c r="L18" s="80"/>
       <c r="M18" s="76">
         <f t="shared" si="0"/>
@@ -3784,15 +3783,15 @@
         <f>requi!C23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="196">
+      <c r="F19" s="206">
         <f>requi!D23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="196"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
       <c r="L19" s="80"/>
       <c r="M19" s="76">
         <f t="shared" si="0"/>
@@ -3816,15 +3815,15 @@
         <f>requi!C24</f>
         <v>0</v>
       </c>
-      <c r="F20" s="196">
+      <c r="F20" s="206">
         <f>requi!D24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="196"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="196"/>
-      <c r="K20" s="196"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="206"/>
       <c r="L20" s="80"/>
       <c r="M20" s="76">
         <f t="shared" si="0"/>
@@ -3848,15 +3847,15 @@
         <f>requi!C25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="196">
+      <c r="F21" s="206">
         <f>requi!D25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="196"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="196"/>
-      <c r="K21" s="196"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="206"/>
       <c r="L21" s="80"/>
       <c r="M21" s="76">
         <f t="shared" si="0"/>
@@ -3880,15 +3879,15 @@
         <f>requi!C26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="196">
+      <c r="F22" s="206">
         <f>requi!D26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="196"/>
-      <c r="H22" s="196"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="196"/>
-      <c r="K22" s="196"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="206"/>
+      <c r="K22" s="206"/>
       <c r="L22" s="80"/>
       <c r="M22" s="76">
         <f t="shared" si="0"/>
@@ -3912,15 +3911,15 @@
         <f>requi!C27</f>
         <v>0</v>
       </c>
-      <c r="F23" s="196">
+      <c r="F23" s="206">
         <f>requi!D27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="196"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="196"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="196"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="206"/>
+      <c r="K23" s="206"/>
       <c r="L23" s="80"/>
       <c r="M23" s="76">
         <f t="shared" si="0"/>
@@ -3944,15 +3943,15 @@
         <f>requi!C28</f>
         <v>0</v>
       </c>
-      <c r="F24" s="196">
+      <c r="F24" s="206">
         <f>requi!D28</f>
         <v>0</v>
       </c>
-      <c r="G24" s="196"/>
-      <c r="H24" s="196"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="196"/>
-      <c r="K24" s="196"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="206"/>
       <c r="L24" s="80"/>
       <c r="M24" s="76">
         <f t="shared" si="0"/>
@@ -3976,12 +3975,12 @@
         <f>requi!C29</f>
         <v>0</v>
       </c>
-      <c r="F25" s="196"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="196"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="196"/>
-      <c r="K25" s="196"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="206"/>
       <c r="L25" s="80"/>
       <c r="M25" s="76">
         <f t="shared" si="0"/>
@@ -3996,12 +3995,12 @@
       <c r="C26" s="78"/>
       <c r="D26" s="82"/>
       <c r="E26" s="83"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="171"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="211"/>
+      <c r="K26" s="212"/>
       <c r="L26" s="80"/>
       <c r="M26" s="76">
         <f t="shared" si="0"/>
@@ -4059,10 +4058,10 @@
       <c r="G29" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="194"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="195"/>
+      <c r="H29" s="225"/>
+      <c r="I29" s="225"/>
+      <c r="J29" s="225"/>
+      <c r="K29" s="226"/>
       <c r="L29" s="80"/>
       <c r="M29" s="76"/>
       <c r="N29" s="81"/>
@@ -4078,13 +4077,13 @@
       <c r="G30" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="194">
+      <c r="H30" s="225">
         <f>requi!M23</f>
         <v>0</v>
       </c>
-      <c r="I30" s="194"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="195"/>
+      <c r="I30" s="225"/>
+      <c r="J30" s="225"/>
+      <c r="K30" s="226"/>
       <c r="L30" s="80"/>
       <c r="M30" s="76"/>
       <c r="N30" s="81"/>
@@ -4100,13 +4099,13 @@
       <c r="G31" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="194">
+      <c r="H31" s="225">
         <f>requi!M24</f>
         <v>0</v>
       </c>
-      <c r="I31" s="194"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="195"/>
+      <c r="I31" s="225"/>
+      <c r="J31" s="225"/>
+      <c r="K31" s="226"/>
       <c r="L31" s="80"/>
       <c r="M31" s="76"/>
       <c r="N31" s="81"/>
@@ -4122,13 +4121,13 @@
       <c r="G32" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="194">
+      <c r="H32" s="225">
         <f>requi!M25</f>
         <v>0</v>
       </c>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="195"/>
+      <c r="I32" s="225"/>
+      <c r="J32" s="225"/>
+      <c r="K32" s="226"/>
       <c r="L32" s="80"/>
       <c r="M32" s="76"/>
       <c r="N32" s="81"/>
@@ -4144,13 +4143,13 @@
       <c r="G33" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="194">
+      <c r="H33" s="225">
         <f>requi!M22</f>
         <v>0</v>
       </c>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="195"/>
+      <c r="I33" s="225"/>
+      <c r="J33" s="225"/>
+      <c r="K33" s="226"/>
       <c r="L33" s="80"/>
       <c r="M33" s="76"/>
       <c r="N33" s="81"/>
@@ -4170,31 +4169,31 @@
       <c r="G34" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="194">
+      <c r="H34" s="225">
         <f>requi!M21</f>
         <v>0</v>
       </c>
-      <c r="I34" s="194"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="195"/>
+      <c r="I34" s="225"/>
+      <c r="J34" s="225"/>
+      <c r="K34" s="226"/>
       <c r="L34" s="80"/>
       <c r="M34" s="76"/>
       <c r="N34" s="81"/>
     </row>
     <row r="35" spans="2:14" ht="10.9" customHeight="1">
-      <c r="B35" s="182" t="str">
+      <c r="B35" s="213" t="str">
         <f>PesosMN(M43)</f>
         <v>SON: ( PESO 00/100 M.N.)</v>
       </c>
-      <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="183"/>
-      <c r="J35" s="183"/>
-      <c r="K35" s="184"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="214"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="214"/>
+      <c r="J35" s="214"/>
+      <c r="K35" s="215"/>
       <c r="L35" s="80"/>
       <c r="M35" s="99" t="s">
         <v>29</v>
@@ -4202,18 +4201,18 @@
       <c r="N35" s="100"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="185" t="str">
+      <c r="B36" s="216" t="str">
         <f>C6</f>
         <v>TRITURADOS BASÁLTICOS TEPETLAOXTOC</v>
       </c>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="187"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="217"/>
+      <c r="E36" s="217"/>
+      <c r="F36" s="217"/>
+      <c r="G36" s="217"/>
+      <c r="H36" s="217"/>
+      <c r="I36" s="217"/>
+      <c r="J36" s="218"/>
       <c r="K36" s="86"/>
       <c r="L36" s="80" t="s">
         <v>29</v>
@@ -4224,21 +4223,21 @@
       <c r="N36" s="100"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="188" t="s">
+      <c r="B37" s="219" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="189"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="190" t="s">
+      <c r="C37" s="220"/>
+      <c r="D37" s="220"/>
+      <c r="E37" s="221" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="191"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="189" t="s">
+      <c r="F37" s="222"/>
+      <c r="G37" s="223"/>
+      <c r="H37" s="220" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="189"/>
-      <c r="J37" s="193"/>
+      <c r="I37" s="220"/>
+      <c r="J37" s="224"/>
       <c r="K37" s="86"/>
       <c r="L37" s="80" t="s">
         <v>29</v>
@@ -4264,21 +4263,21 @@
       <c r="N38" s="109"/>
     </row>
     <row r="39" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="239" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="166" t="s">
+      <c r="C39" s="228"/>
+      <c r="D39" s="228"/>
+      <c r="E39" s="227" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="167"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="167" t="s">
+      <c r="F39" s="228"/>
+      <c r="G39" s="229"/>
+      <c r="H39" s="228" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="167"/>
-      <c r="J39" s="168"/>
+      <c r="I39" s="228"/>
+      <c r="J39" s="229"/>
       <c r="K39" s="110"/>
       <c r="L39" s="111" t="s">
         <v>72</v>
@@ -4290,17 +4289,17 @@
       <c r="N39" s="113"/>
     </row>
     <row r="40" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="230" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="171"/>
+      <c r="C40" s="211"/>
+      <c r="D40" s="211"/>
+      <c r="E40" s="211"/>
+      <c r="F40" s="211"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="211"/>
+      <c r="I40" s="211"/>
+      <c r="J40" s="212"/>
       <c r="K40" s="114"/>
       <c r="L40" s="115" t="s">
         <v>74</v>
@@ -4332,12 +4331,12 @@
         <v>76</v>
       </c>
       <c r="G42" s="124"/>
-      <c r="H42" s="172">
+      <c r="H42" s="231">
         <f>+G7</f>
         <v>0</v>
       </c>
-      <c r="I42" s="172"/>
-      <c r="J42" s="173"/>
+      <c r="I42" s="231"/>
+      <c r="J42" s="232"/>
       <c r="K42" s="114"/>
       <c r="L42" s="115" t="s">
         <v>77</v>
@@ -4346,21 +4345,21 @@
       <c r="N42" s="113"/>
     </row>
     <row r="43" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="233" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="175"/>
-      <c r="D43" s="175"/>
-      <c r="E43" s="176" t="s">
+      <c r="C43" s="234"/>
+      <c r="D43" s="234"/>
+      <c r="E43" s="235" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="177"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="175" t="s">
+      <c r="F43" s="236"/>
+      <c r="G43" s="237"/>
+      <c r="H43" s="234" t="s">
         <v>80</v>
       </c>
-      <c r="I43" s="175"/>
-      <c r="J43" s="179"/>
+      <c r="I43" s="234"/>
+      <c r="J43" s="238"/>
       <c r="K43" s="125" t="s">
         <v>29</v>
       </c>
@@ -4538,29 +4537,26 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
     <mergeCell ref="F25:K25"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F15:K15"/>
@@ -4573,26 +4569,29 @@
     <mergeCell ref="F22:K22"/>
     <mergeCell ref="F23:K23"/>
     <mergeCell ref="F24:K24"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/ExcelsStorageRequis/plantillas/maquinaria/NoFactura.xlsx
+++ b/src/ExcelsStorageRequis/plantillas/maquinaria/NoFactura.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\src\ExcelsStorageRequis\plantillas\maquinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D91109-0066-430C-B88A-3E83D4BCFF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46D9D8C-3848-4924-8E9C-B75552943BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2565" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
   </bookViews>
   <sheets>
     <sheet name="requi" sheetId="1" r:id="rId1"/>
@@ -1777,6 +1777,96 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1792,95 +1882,173 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1900,9 +2068,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1944,171 +2109,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2780,70 +2780,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" customHeight="1">
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
       <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="35.25" customHeight="1">
-      <c r="F3" s="132" t="s">
+      <c r="F3" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
     <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="134" t="s">
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="135"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="165"/>
       <c r="O5" s="29"/>
     </row>
     <row r="6" spans="2:15" ht="15.75">
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
       <c r="H7" s="27" t="s">
         <v>38</v>
       </c>
@@ -2851,17 +2851,17 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="138" t="s">
+      <c r="M7" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
     </row>
     <row r="8" spans="2:15" ht="12.75" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
       <c r="H8" s="22"/>
       <c r="I8" s="21" t="s">
         <v>36</v>
@@ -2871,10 +2871,10 @@
       <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
       <c r="H9" s="22"/>
       <c r="I9" s="21" t="s">
         <v>34</v>
@@ -2899,10 +2899,10 @@
       <c r="B11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2934,52 +2934,52 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="155" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="143" t="s">
+      <c r="D17" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="143" t="s">
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="141" t="s">
+      <c r="J17" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="141" t="s">
+      <c r="K17" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="143" t="s">
+      <c r="L17" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="145"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="141"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="142"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="148"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="144"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="18"/>
@@ -3002,23 +3002,23 @@
         <v>1</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="151"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="147"/>
       <c r="I20" s="17"/>
       <c r="J20" s="34"/>
       <c r="K20" s="16"/>
       <c r="L20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="157"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="150"/>
       <c r="R20" s="1"/>
-      <c r="T20" s="152"/>
-      <c r="U20" s="152"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="148"/>
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="12">
@@ -3026,24 +3026,24 @@
         <v>2</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="155"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="135"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="159"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="152"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="152"/>
-      <c r="U21" s="152"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="148"/>
     </row>
     <row r="22" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="12">
@@ -3051,25 +3051,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="155"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="135"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="152"/>
-      <c r="U22" s="152"/>
+      <c r="T22" s="148"/>
+      <c r="U22" s="148"/>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="12">
@@ -3077,24 +3077,24 @@
         <v>4</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="155"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="135"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="159"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="152"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="152"/>
-      <c r="U23" s="152"/>
+      <c r="T23" s="148"/>
+      <c r="U23" s="148"/>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="12">
@@ -3102,24 +3102,24 @@
         <v>5</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="155"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="135"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="159"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="152"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="152"/>
+      <c r="T24" s="148"/>
+      <c r="U24" s="148"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="12">
@@ -3127,24 +3127,24 @@
         <v>6</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="155"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="135"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="161"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="153"/>
+      <c r="O25" s="154"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="152"/>
-      <c r="U25" s="152"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="148"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="12">
@@ -3166,11 +3166,11 @@
         <v>8</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="155"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="135"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -3185,11 +3185,11 @@
         <v>9</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="155"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="135"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -3218,11 +3218,11 @@
         <v>11</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="155"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="135"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3237,13 +3237,13 @@
         <v>12</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="163" t="s">
+      <c r="D31" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="165"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="138"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -3274,10 +3274,10 @@
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="2:13" s="1" customFormat="1">
-      <c r="B33" s="162" t="s">
+      <c r="B33" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="162"/>
+      <c r="C33" s="131"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
         <v>8</v>
@@ -3293,10 +3293,10 @@
       </c>
     </row>
     <row r="36" spans="2:13" s="1" customFormat="1">
-      <c r="B36" s="139" t="s">
+      <c r="B36" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="162"/>
+      <c r="C36" s="131"/>
       <c r="F36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3311,10 +3311,10 @@
       </c>
     </row>
     <row r="37" spans="2:13" s="1" customFormat="1">
-      <c r="B37" s="139" t="s">
+      <c r="B37" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="139"/>
+      <c r="C37" s="132"/>
       <c r="F37" s="1" t="s">
         <v>2</v>
       </c>
@@ -3327,14 +3327,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:O18"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="T20:U25"/>
@@ -3348,21 +3355,14 @@
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="M25:O25"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -3377,8 +3377,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:N97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3418,19 +3418,19 @@
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="166" t="s">
+      <c r="E3" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="167" t="s">
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="168"/>
+      <c r="M3" s="224"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14">
@@ -3456,95 +3456,95 @@
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="169" t="s">
+      <c r="L5" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="170"/>
+      <c r="M5" s="226"/>
       <c r="N5" s="54"/>
     </row>
     <row r="6" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="173" t="s">
+      <c r="C6" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="177" t="s">
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="232" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="180">
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="233"/>
+      <c r="K6" s="234"/>
+      <c r="L6" s="235">
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="M6" s="181"/>
+      <c r="M6" s="236"/>
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="172"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="182">
+      <c r="B7" s="213"/>
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="237">
         <f>requi!K20</f>
         <v>0</v>
       </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="185" t="s">
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="239"/>
+      <c r="L7" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="186"/>
+      <c r="M7" s="241"/>
       <c r="N7" s="46"/>
     </row>
     <row r="8" spans="2:14" ht="12.95" customHeight="1">
-      <c r="B8" s="187" t="s">
+      <c r="B8" s="212" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="188" t="s">
+      <c r="C8" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="192" t="s">
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="194">
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="215"/>
+      <c r="L8" s="220">
         <f>requi!C11</f>
         <v>0</v>
       </c>
-      <c r="M8" s="195"/>
+      <c r="M8" s="221"/>
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="172"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="196" t="s">
+      <c r="B9" s="213"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="197"/>
+      <c r="M9" s="209"/>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14">
@@ -3560,64 +3560,64 @@
       <c r="G10" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="198">
+      <c r="H10" s="202">
         <f>requi!M20</f>
         <v>0</v>
       </c>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="199"/>
-      <c r="L10" s="200">
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="203"/>
+      <c r="L10" s="204">
         <f>requi!O5</f>
         <v>0</v>
       </c>
-      <c r="M10" s="201"/>
+      <c r="M10" s="205"/>
       <c r="N10" s="61"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="202">
-        <f>requi!C9</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="202"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="203"/>
+      <c r="C11" s="206">
+        <f>requi!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="207"/>
       <c r="G11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="198" t="s">
+      <c r="H11" s="202" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="199"/>
-      <c r="L11" s="196" t="s">
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="203"/>
+      <c r="L11" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="197"/>
+      <c r="M11" s="209"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="203"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="206"/>
+      <c r="E12" s="206"/>
+      <c r="F12" s="207"/>
       <c r="G12" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="198" t="s">
+      <c r="H12" s="202" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="198"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="199"/>
-      <c r="L12" s="204"/>
-      <c r="M12" s="205"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="203"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="211"/>
     </row>
     <row r="13" spans="2:14" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="B13" s="62"/>
@@ -3628,13 +3628,13 @@
       <c r="G13" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="240">
+      <c r="H13" s="197">
         <f>H29</f>
         <v>0</v>
       </c>
-      <c r="I13" s="240"/>
-      <c r="J13" s="240"/>
-      <c r="K13" s="241"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="198"/>
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
       <c r="N13" s="46"/>
@@ -3655,14 +3655,14 @@
       <c r="E15" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="207" t="s">
+      <c r="F15" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="208"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="208"/>
-      <c r="K15" s="209"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="201"/>
       <c r="L15" s="70" t="s">
         <v>63</v>
       </c>
@@ -3687,15 +3687,15 @@
         <f>requi!C20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="206">
+      <c r="F16" s="196">
         <f>requi!D20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="206"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="206"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="196"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M27" si="0">L16*C16</f>
@@ -3719,15 +3719,15 @@
         <f>requi!C21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="206">
+      <c r="F17" s="196">
         <f>requi!D21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="206"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="206"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="196"/>
       <c r="L17" s="80"/>
       <c r="M17" s="76">
         <f t="shared" si="0"/>
@@ -3751,15 +3751,15 @@
         <f>requi!C22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="206">
+      <c r="F18" s="196">
         <f>requi!D22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="206"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="206"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="196"/>
       <c r="L18" s="80"/>
       <c r="M18" s="76">
         <f t="shared" si="0"/>
@@ -3783,15 +3783,15 @@
         <f>requi!C23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="206">
+      <c r="F19" s="196">
         <f>requi!D23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="206"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="206"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
       <c r="L19" s="80"/>
       <c r="M19" s="76">
         <f t="shared" si="0"/>
@@ -3815,15 +3815,15 @@
         <f>requi!C24</f>
         <v>0</v>
       </c>
-      <c r="F20" s="206">
+      <c r="F20" s="196">
         <f>requi!D24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="206"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="206"/>
-      <c r="J20" s="206"/>
-      <c r="K20" s="206"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="196"/>
       <c r="L20" s="80"/>
       <c r="M20" s="76">
         <f t="shared" si="0"/>
@@ -3847,15 +3847,15 @@
         <f>requi!C25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="206">
+      <c r="F21" s="196">
         <f>requi!D25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="206"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="206"/>
-      <c r="J21" s="206"/>
-      <c r="K21" s="206"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="196"/>
       <c r="L21" s="80"/>
       <c r="M21" s="76">
         <f t="shared" si="0"/>
@@ -3879,15 +3879,15 @@
         <f>requi!C26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="206">
+      <c r="F22" s="196">
         <f>requi!D26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="206"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="206"/>
-      <c r="J22" s="206"/>
-      <c r="K22" s="206"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="196"/>
       <c r="L22" s="80"/>
       <c r="M22" s="76">
         <f t="shared" si="0"/>
@@ -3911,15 +3911,15 @@
         <f>requi!C27</f>
         <v>0</v>
       </c>
-      <c r="F23" s="206">
+      <c r="F23" s="196">
         <f>requi!D27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="206"/>
-      <c r="H23" s="206"/>
-      <c r="I23" s="206"/>
-      <c r="J23" s="206"/>
-      <c r="K23" s="206"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="196"/>
       <c r="L23" s="80"/>
       <c r="M23" s="76">
         <f t="shared" si="0"/>
@@ -3943,15 +3943,15 @@
         <f>requi!C28</f>
         <v>0</v>
       </c>
-      <c r="F24" s="206">
+      <c r="F24" s="196">
         <f>requi!D28</f>
         <v>0</v>
       </c>
-      <c r="G24" s="206"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="206"/>
-      <c r="J24" s="206"/>
-      <c r="K24" s="206"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="196"/>
+      <c r="K24" s="196"/>
       <c r="L24" s="80"/>
       <c r="M24" s="76">
         <f t="shared" si="0"/>
@@ -3975,12 +3975,12 @@
         <f>requi!C29</f>
         <v>0</v>
       </c>
-      <c r="F25" s="206"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="206"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="196"/>
+      <c r="K25" s="196"/>
       <c r="L25" s="80"/>
       <c r="M25" s="76">
         <f t="shared" si="0"/>
@@ -3995,12 +3995,12 @@
       <c r="C26" s="78"/>
       <c r="D26" s="82"/>
       <c r="E26" s="83"/>
-      <c r="F26" s="210"/>
-      <c r="G26" s="211"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="211"/>
-      <c r="J26" s="211"/>
-      <c r="K26" s="212"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="171"/>
       <c r="L26" s="80"/>
       <c r="M26" s="76">
         <f t="shared" si="0"/>
@@ -4058,10 +4058,10 @@
       <c r="G29" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="225"/>
-      <c r="I29" s="225"/>
-      <c r="J29" s="225"/>
-      <c r="K29" s="226"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="195"/>
       <c r="L29" s="80"/>
       <c r="M29" s="76"/>
       <c r="N29" s="81"/>
@@ -4077,13 +4077,13 @@
       <c r="G30" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="225">
+      <c r="H30" s="194">
         <f>requi!M23</f>
         <v>0</v>
       </c>
-      <c r="I30" s="225"/>
-      <c r="J30" s="225"/>
-      <c r="K30" s="226"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="195"/>
       <c r="L30" s="80"/>
       <c r="M30" s="76"/>
       <c r="N30" s="81"/>
@@ -4099,13 +4099,13 @@
       <c r="G31" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="225">
+      <c r="H31" s="194">
         <f>requi!M24</f>
         <v>0</v>
       </c>
-      <c r="I31" s="225"/>
-      <c r="J31" s="225"/>
-      <c r="K31" s="226"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="195"/>
       <c r="L31" s="80"/>
       <c r="M31" s="76"/>
       <c r="N31" s="81"/>
@@ -4121,13 +4121,13 @@
       <c r="G32" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="225">
+      <c r="H32" s="194">
         <f>requi!M25</f>
         <v>0</v>
       </c>
-      <c r="I32" s="225"/>
-      <c r="J32" s="225"/>
-      <c r="K32" s="226"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="195"/>
       <c r="L32" s="80"/>
       <c r="M32" s="76"/>
       <c r="N32" s="81"/>
@@ -4143,13 +4143,13 @@
       <c r="G33" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="225">
+      <c r="H33" s="194">
         <f>requi!M22</f>
         <v>0</v>
       </c>
-      <c r="I33" s="225"/>
-      <c r="J33" s="225"/>
-      <c r="K33" s="226"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="195"/>
       <c r="L33" s="80"/>
       <c r="M33" s="76"/>
       <c r="N33" s="81"/>
@@ -4169,31 +4169,31 @@
       <c r="G34" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="225">
+      <c r="H34" s="194">
         <f>requi!M21</f>
         <v>0</v>
       </c>
-      <c r="I34" s="225"/>
-      <c r="J34" s="225"/>
-      <c r="K34" s="226"/>
+      <c r="I34" s="194"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="195"/>
       <c r="L34" s="80"/>
       <c r="M34" s="76"/>
       <c r="N34" s="81"/>
     </row>
     <row r="35" spans="2:14" ht="10.9" customHeight="1">
-      <c r="B35" s="213" t="str">
+      <c r="B35" s="182" t="str">
         <f>PesosMN(M43)</f>
         <v>SON: ( PESO 00/100 M.N.)</v>
       </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="214"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="214"/>
-      <c r="G35" s="214"/>
-      <c r="H35" s="214"/>
-      <c r="I35" s="214"/>
-      <c r="J35" s="214"/>
-      <c r="K35" s="215"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="183"/>
+      <c r="K35" s="184"/>
       <c r="L35" s="80"/>
       <c r="M35" s="99" t="s">
         <v>29</v>
@@ -4201,18 +4201,18 @@
       <c r="N35" s="100"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="216" t="str">
+      <c r="B36" s="185" t="str">
         <f>C6</f>
         <v>TRITURADOS BASÁLTICOS TEPETLAOXTOC</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="217"/>
-      <c r="E36" s="217"/>
-      <c r="F36" s="217"/>
-      <c r="G36" s="217"/>
-      <c r="H36" s="217"/>
-      <c r="I36" s="217"/>
-      <c r="J36" s="218"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="186"/>
+      <c r="J36" s="187"/>
       <c r="K36" s="86"/>
       <c r="L36" s="80" t="s">
         <v>29</v>
@@ -4223,21 +4223,21 @@
       <c r="N36" s="100"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="219" t="s">
+      <c r="B37" s="188" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="220"/>
-      <c r="D37" s="220"/>
-      <c r="E37" s="221" t="s">
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="222"/>
-      <c r="G37" s="223"/>
-      <c r="H37" s="220" t="s">
+      <c r="F37" s="191"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="189" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="220"/>
-      <c r="J37" s="224"/>
+      <c r="I37" s="189"/>
+      <c r="J37" s="193"/>
       <c r="K37" s="86"/>
       <c r="L37" s="80" t="s">
         <v>29</v>
@@ -4263,21 +4263,21 @@
       <c r="N38" s="109"/>
     </row>
     <row r="39" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B39" s="239" t="s">
+      <c r="B39" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="228"/>
-      <c r="D39" s="228"/>
-      <c r="E39" s="227" t="s">
+      <c r="C39" s="167"/>
+      <c r="D39" s="167"/>
+      <c r="E39" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="228"/>
-      <c r="G39" s="229"/>
-      <c r="H39" s="228" t="s">
+      <c r="F39" s="167"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="228"/>
-      <c r="J39" s="229"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="168"/>
       <c r="K39" s="110"/>
       <c r="L39" s="111" t="s">
         <v>72</v>
@@ -4289,17 +4289,17 @@
       <c r="N39" s="113"/>
     </row>
     <row r="40" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B40" s="230" t="s">
+      <c r="B40" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="211"/>
-      <c r="D40" s="211"/>
-      <c r="E40" s="211"/>
-      <c r="F40" s="211"/>
-      <c r="G40" s="211"/>
-      <c r="H40" s="211"/>
-      <c r="I40" s="211"/>
-      <c r="J40" s="212"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="171"/>
       <c r="K40" s="114"/>
       <c r="L40" s="115" t="s">
         <v>74</v>
@@ -4331,12 +4331,12 @@
         <v>76</v>
       </c>
       <c r="G42" s="124"/>
-      <c r="H42" s="231">
+      <c r="H42" s="172">
         <f>+G7</f>
         <v>0</v>
       </c>
-      <c r="I42" s="231"/>
-      <c r="J42" s="232"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="173"/>
       <c r="K42" s="114"/>
       <c r="L42" s="115" t="s">
         <v>77</v>
@@ -4345,21 +4345,21 @@
       <c r="N42" s="113"/>
     </row>
     <row r="43" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B43" s="233" t="s">
+      <c r="B43" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="234"/>
-      <c r="D43" s="234"/>
-      <c r="E43" s="235" t="s">
+      <c r="C43" s="175"/>
+      <c r="D43" s="175"/>
+      <c r="E43" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="236"/>
-      <c r="G43" s="237"/>
-      <c r="H43" s="234" t="s">
+      <c r="F43" s="177"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="I43" s="234"/>
-      <c r="J43" s="238"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="179"/>
       <c r="K43" s="125" t="s">
         <v>29</v>
       </c>
@@ -4537,14 +4537,41 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="F24:K24"/>
     <mergeCell ref="F26:K26"/>
     <mergeCell ref="B35:K35"/>
     <mergeCell ref="B36:J36"/>
@@ -4557,41 +4584,14 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="H34:K34"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/ExcelsStorageRequis/plantillas/maquinaria/NoFactura.xlsx
+++ b/src/ExcelsStorageRequis/plantillas/maquinaria/NoFactura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\src\ExcelsStorageRequis\plantillas\maquinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46D9D8C-3848-4924-8E9C-B75552943BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D49AE-8F44-4BC9-ADD0-575BEDEA00DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
   </bookViews>
   <sheets>
     <sheet name="requi" sheetId="1" r:id="rId1"/>
@@ -1485,7 +1485,7 @@
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1768,30 +1768,108 @@
     <xf numFmtId="44" fontId="22" fillId="6" borderId="81" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1801,86 +1879,194 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1892,12 +2078,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1927,188 +2107,11 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2750,10 +2753,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:U37"/>
+  <dimension ref="B2:U38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V56" sqref="V56"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2780,70 +2783,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" customHeight="1">
-      <c r="F2" s="161" t="s">
+      <c r="F2" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
       <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="35.25" customHeight="1">
-      <c r="F3" s="162" t="s">
+      <c r="F3" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
     <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="164" t="s">
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="165"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="134"/>
       <c r="O5" s="29"/>
     </row>
     <row r="6" spans="2:15" ht="15.75">
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
       <c r="H7" s="27" t="s">
         <v>38</v>
       </c>
@@ -2851,17 +2854,17 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="159" t="s">
+      <c r="M7" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
     </row>
     <row r="8" spans="2:15" ht="12.75" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
       <c r="H8" s="22"/>
       <c r="I8" s="21" t="s">
         <v>36</v>
@@ -2871,10 +2874,10 @@
       <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
       <c r="H9" s="22"/>
       <c r="I9" s="21" t="s">
         <v>34</v>
@@ -2899,10 +2902,10 @@
       <c r="B11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2934,52 +2937,52 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="140" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="139" t="s">
+      <c r="D17" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="139" t="s">
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="155" t="s">
+      <c r="J17" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="155" t="s">
+      <c r="K17" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="139" t="s">
+      <c r="L17" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="140"/>
-      <c r="N17" s="140"/>
-      <c r="O17" s="141"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="144"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="156"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="142"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="144"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="147"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="18"/>
@@ -3002,23 +3005,23 @@
         <v>1</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="150"/>
       <c r="I20" s="17"/>
       <c r="J20" s="34"/>
       <c r="K20" s="16"/>
       <c r="L20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="149"/>
-      <c r="N20" s="149"/>
-      <c r="O20" s="150"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="156"/>
       <c r="R20" s="1"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
+      <c r="T20" s="151"/>
+      <c r="U20" s="151"/>
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="12">
@@ -3026,24 +3029,24 @@
         <v>2</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="135"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="154"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="152"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="158"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="151"/>
     </row>
     <row r="22" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="12">
@@ -3051,25 +3054,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="135"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="154"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
+      <c r="T22" s="151"/>
+      <c r="U22" s="151"/>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="12">
@@ -3077,24 +3080,24 @@
         <v>4</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="135"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="154"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="152"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="158"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="151"/>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="12">
@@ -3102,24 +3105,24 @@
         <v>5</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="135"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="154"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="152"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="158"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="151"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="12">
@@ -3127,24 +3130,24 @@
         <v>6</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="135"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="154"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="154"/>
+      <c r="M25" s="159"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="160"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="148"/>
+      <c r="T25" s="151"/>
+      <c r="U25" s="151"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="12">
@@ -3166,11 +3169,11 @@
         <v>8</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="135"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="154"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -3185,11 +3188,11 @@
         <v>9</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="135"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="154"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -3218,11 +3221,11 @@
         <v>11</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="135"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="154"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3237,13 +3240,13 @@
         <v>12</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="136" t="s">
+      <c r="D31" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="138"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="164"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -3273,11 +3276,11 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
-    <row r="33" spans="2:13" s="1" customFormat="1">
-      <c r="B33" s="131" t="s">
+    <row r="33" spans="2:15" s="1" customFormat="1">
+      <c r="B33" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="131"/>
+      <c r="C33" s="161"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
         <v>8</v>
@@ -3292,11 +3295,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:13" s="1" customFormat="1">
-      <c r="B36" s="132" t="s">
+    <row r="36" spans="2:15" s="1" customFormat="1">
+      <c r="B36" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="131"/>
+      <c r="C36" s="161"/>
       <c r="F36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3310,11 +3313,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:13" s="1" customFormat="1">
-      <c r="B37" s="132" t="s">
+    <row r="37" spans="2:15" s="1" customFormat="1">
+      <c r="B37" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="132"/>
+      <c r="C37" s="138"/>
       <c r="F37" s="1" t="s">
         <v>2</v>
       </c>
@@ -3325,23 +3328,33 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="138"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="138"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
+  <mergeCells count="37">
+    <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
     <mergeCell ref="L17:O18"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="T20:U25"/>
@@ -3355,14 +3368,21 @@
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="M25:O25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -3377,8 +3397,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:N97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3418,19 +3438,19 @@
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="222" t="s">
+      <c r="E3" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="222"/>
-      <c r="G3" s="222"/>
-      <c r="H3" s="222"/>
-      <c r="I3" s="222"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="223" t="s">
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="224"/>
+      <c r="M3" s="167"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14">
@@ -3456,95 +3476,95 @@
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="225" t="s">
+      <c r="L5" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="226"/>
+      <c r="M5" s="169"/>
       <c r="N5" s="54"/>
     </row>
     <row r="6" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B6" s="227" t="s">
+      <c r="B6" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="228" t="s">
+      <c r="C6" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="228"/>
-      <c r="E6" s="228"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="232" t="s">
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="233"/>
-      <c r="K6" s="234"/>
-      <c r="L6" s="235">
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="179">
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="M6" s="236"/>
+      <c r="M6" s="180"/>
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="213"/>
-      <c r="C7" s="230"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="237">
+      <c r="B7" s="171"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="181">
         <f>requi!K20</f>
         <v>0</v>
       </c>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="240" t="s">
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="241"/>
+      <c r="M7" s="185"/>
       <c r="N7" s="46"/>
     </row>
     <row r="8" spans="2:14" ht="12.95" customHeight="1">
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="214" t="s">
+      <c r="C8" s="187" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="218" t="s">
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="214"/>
-      <c r="I8" s="214"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="215"/>
-      <c r="L8" s="220">
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="193">
         <f>requi!C11</f>
         <v>0</v>
       </c>
-      <c r="M8" s="221"/>
+      <c r="M8" s="194"/>
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="213"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="217"/>
-      <c r="L9" s="208" t="s">
+      <c r="B9" s="171"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="209"/>
+      <c r="M9" s="196"/>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14">
@@ -3560,64 +3580,64 @@
       <c r="G10" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="202">
+      <c r="H10" s="197">
         <f>requi!M20</f>
         <v>0</v>
       </c>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="204">
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="199">
         <f>requi!O5</f>
         <v>0</v>
       </c>
-      <c r="M10" s="205"/>
+      <c r="M10" s="200"/>
       <c r="N10" s="61"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="206">
+      <c r="C11" s="201">
         <f>requi!C7</f>
         <v>0</v>
       </c>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="207"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="202"/>
       <c r="G11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="202" t="s">
+      <c r="H11" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="203"/>
-      <c r="L11" s="208" t="s">
+      <c r="I11" s="197"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="209"/>
+      <c r="M11" s="196"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="206"/>
-      <c r="D12" s="206"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="207"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
       <c r="G12" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="202" t="s">
+      <c r="H12" s="197" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="203"/>
-      <c r="L12" s="210"/>
-      <c r="M12" s="211"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="203"/>
+      <c r="M12" s="204"/>
     </row>
     <row r="13" spans="2:14" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="B13" s="62"/>
@@ -3628,13 +3648,13 @@
       <c r="G13" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="197">
+      <c r="H13" s="206">
         <f>H29</f>
         <v>0</v>
       </c>
-      <c r="I13" s="197"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="198"/>
+      <c r="I13" s="206"/>
+      <c r="J13" s="206"/>
+      <c r="K13" s="207"/>
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
       <c r="N13" s="46"/>
@@ -3655,14 +3675,14 @@
       <c r="E15" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="199" t="s">
+      <c r="F15" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="201"/>
+      <c r="G15" s="209"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="209"/>
+      <c r="K15" s="210"/>
       <c r="L15" s="70" t="s">
         <v>63</v>
       </c>
@@ -3675,27 +3695,27 @@
       <c r="B16" s="74">
         <v>1</v>
       </c>
-      <c r="C16" s="130">
+      <c r="C16" s="129">
         <f>requi!J20</f>
         <v>0</v>
       </c>
-      <c r="D16" s="130">
+      <c r="D16" s="129">
         <f>requi!I20</f>
         <v>0</v>
       </c>
-      <c r="E16" s="130">
+      <c r="E16" s="129">
         <f>requi!C20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="196">
+      <c r="F16" s="205">
         <f>requi!D20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="196"/>
-      <c r="H16" s="196"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="196"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="205"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M27" si="0">L16*C16</f>
@@ -3707,27 +3727,27 @@
       <c r="B17" s="74">
         <v>2</v>
       </c>
-      <c r="C17" s="130">
+      <c r="C17" s="129">
         <f>requi!J21</f>
         <v>0</v>
       </c>
-      <c r="D17" s="130">
+      <c r="D17" s="129">
         <f>requi!I21</f>
         <v>0</v>
       </c>
-      <c r="E17" s="130">
+      <c r="E17" s="129">
         <f>requi!C21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="196">
+      <c r="F17" s="205">
         <f>requi!D21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="196"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="196"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="205"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="205"/>
       <c r="L17" s="80"/>
       <c r="M17" s="76">
         <f t="shared" si="0"/>
@@ -3739,27 +3759,27 @@
       <c r="B18" s="74">
         <v>3</v>
       </c>
-      <c r="C18" s="130">
+      <c r="C18" s="129">
         <f>requi!J22</f>
         <v>0</v>
       </c>
-      <c r="D18" s="130">
+      <c r="D18" s="129">
         <f>requi!I22</f>
         <v>0</v>
       </c>
-      <c r="E18" s="130">
+      <c r="E18" s="129">
         <f>requi!C22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="196">
+      <c r="F18" s="205">
         <f>requi!D22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="196"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="196"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="205"/>
       <c r="L18" s="80"/>
       <c r="M18" s="76">
         <f t="shared" si="0"/>
@@ -3771,27 +3791,27 @@
       <c r="B19" s="74">
         <v>4</v>
       </c>
-      <c r="C19" s="130">
+      <c r="C19" s="129">
         <f>requi!J23</f>
         <v>0</v>
       </c>
-      <c r="D19" s="130">
+      <c r="D19" s="129">
         <f>requi!I23</f>
         <v>0</v>
       </c>
-      <c r="E19" s="130">
+      <c r="E19" s="129">
         <f>requi!C23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="196">
+      <c r="F19" s="205">
         <f>requi!D23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="196"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
+      <c r="J19" s="205"/>
+      <c r="K19" s="205"/>
       <c r="L19" s="80"/>
       <c r="M19" s="76">
         <f t="shared" si="0"/>
@@ -3803,27 +3823,27 @@
       <c r="B20" s="74">
         <v>5</v>
       </c>
-      <c r="C20" s="130">
+      <c r="C20" s="129">
         <f>requi!J24</f>
         <v>0</v>
       </c>
-      <c r="D20" s="130">
+      <c r="D20" s="129">
         <f>requi!I24</f>
         <v>0</v>
       </c>
-      <c r="E20" s="130">
+      <c r="E20" s="129">
         <f>requi!C24</f>
         <v>0</v>
       </c>
-      <c r="F20" s="196">
+      <c r="F20" s="205">
         <f>requi!D24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="196"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="196"/>
-      <c r="K20" s="196"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="205"/>
+      <c r="J20" s="205"/>
+      <c r="K20" s="205"/>
       <c r="L20" s="80"/>
       <c r="M20" s="76">
         <f t="shared" si="0"/>
@@ -3835,27 +3855,27 @@
       <c r="B21" s="74">
         <v>6</v>
       </c>
-      <c r="C21" s="130">
+      <c r="C21" s="129">
         <f>requi!J25</f>
         <v>0</v>
       </c>
-      <c r="D21" s="130">
+      <c r="D21" s="129">
         <f>requi!I25</f>
         <v>0</v>
       </c>
-      <c r="E21" s="130">
+      <c r="E21" s="129">
         <f>requi!C25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="196">
+      <c r="F21" s="205">
         <f>requi!D25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="196"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="196"/>
-      <c r="J21" s="196"/>
-      <c r="K21" s="196"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="205"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="205"/>
+      <c r="K21" s="205"/>
       <c r="L21" s="80"/>
       <c r="M21" s="76">
         <f t="shared" si="0"/>
@@ -3867,27 +3887,27 @@
       <c r="B22" s="74">
         <v>7</v>
       </c>
-      <c r="C22" s="130">
+      <c r="C22" s="129">
         <f>requi!J26</f>
         <v>0</v>
       </c>
-      <c r="D22" s="130">
+      <c r="D22" s="129">
         <f>requi!I26</f>
         <v>0</v>
       </c>
-      <c r="E22" s="130">
+      <c r="E22" s="129">
         <f>requi!C26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="196">
+      <c r="F22" s="205">
         <f>requi!D26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="196"/>
-      <c r="H22" s="196"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="196"/>
-      <c r="K22" s="196"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="205"/>
+      <c r="K22" s="205"/>
       <c r="L22" s="80"/>
       <c r="M22" s="76">
         <f t="shared" si="0"/>
@@ -3899,27 +3919,27 @@
       <c r="B23" s="74">
         <v>8</v>
       </c>
-      <c r="C23" s="130">
+      <c r="C23" s="129">
         <f>requi!J27</f>
         <v>0</v>
       </c>
-      <c r="D23" s="130">
+      <c r="D23" s="129">
         <f>requi!I27</f>
         <v>0</v>
       </c>
-      <c r="E23" s="130">
+      <c r="E23" s="129">
         <f>requi!C27</f>
         <v>0</v>
       </c>
-      <c r="F23" s="196">
+      <c r="F23" s="205">
         <f>requi!D27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="196"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="196"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="196"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="205"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="205"/>
       <c r="L23" s="80"/>
       <c r="M23" s="76">
         <f t="shared" si="0"/>
@@ -3931,27 +3951,27 @@
       <c r="B24" s="74">
         <v>9</v>
       </c>
-      <c r="C24" s="130">
+      <c r="C24" s="129">
         <f>requi!J28</f>
         <v>0</v>
       </c>
-      <c r="D24" s="130">
+      <c r="D24" s="129">
         <f>requi!I28</f>
         <v>0</v>
       </c>
-      <c r="E24" s="130">
+      <c r="E24" s="129">
         <f>requi!C28</f>
         <v>0</v>
       </c>
-      <c r="F24" s="196">
+      <c r="F24" s="205">
         <f>requi!D28</f>
         <v>0</v>
       </c>
-      <c r="G24" s="196"/>
-      <c r="H24" s="196"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="196"/>
-      <c r="K24" s="196"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="205"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="205"/>
       <c r="L24" s="80"/>
       <c r="M24" s="76">
         <f t="shared" si="0"/>
@@ -3963,24 +3983,24 @@
       <c r="B25" s="74">
         <v>10</v>
       </c>
-      <c r="C25" s="130">
+      <c r="C25" s="129">
         <f>requi!J29</f>
         <v>0</v>
       </c>
-      <c r="D25" s="130">
+      <c r="D25" s="129">
         <f>requi!I29</f>
         <v>0</v>
       </c>
-      <c r="E25" s="130">
+      <c r="E25" s="129">
         <f>requi!C29</f>
         <v>0</v>
       </c>
-      <c r="F25" s="196"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="196"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="196"/>
-      <c r="K25" s="196"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="205"/>
       <c r="L25" s="80"/>
       <c r="M25" s="76">
         <f t="shared" si="0"/>
@@ -3995,12 +4015,12 @@
       <c r="C26" s="78"/>
       <c r="D26" s="82"/>
       <c r="E26" s="83"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="171"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="212"/>
+      <c r="K26" s="213"/>
       <c r="L26" s="80"/>
       <c r="M26" s="76">
         <f t="shared" si="0"/>
@@ -4058,10 +4078,10 @@
       <c r="G29" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="194"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="195"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="226"/>
+      <c r="J29" s="226"/>
+      <c r="K29" s="227"/>
       <c r="L29" s="80"/>
       <c r="M29" s="76"/>
       <c r="N29" s="81"/>
@@ -4077,13 +4097,13 @@
       <c r="G30" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="194">
+      <c r="H30" s="226">
         <f>requi!M23</f>
         <v>0</v>
       </c>
-      <c r="I30" s="194"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="195"/>
+      <c r="I30" s="226"/>
+      <c r="J30" s="226"/>
+      <c r="K30" s="227"/>
       <c r="L30" s="80"/>
       <c r="M30" s="76"/>
       <c r="N30" s="81"/>
@@ -4099,13 +4119,13 @@
       <c r="G31" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="194">
+      <c r="H31" s="226">
         <f>requi!M24</f>
         <v>0</v>
       </c>
-      <c r="I31" s="194"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="195"/>
+      <c r="I31" s="226"/>
+      <c r="J31" s="226"/>
+      <c r="K31" s="227"/>
       <c r="L31" s="80"/>
       <c r="M31" s="76"/>
       <c r="N31" s="81"/>
@@ -4121,13 +4141,13 @@
       <c r="G32" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="194">
+      <c r="H32" s="226">
         <f>requi!M25</f>
         <v>0</v>
       </c>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="195"/>
+      <c r="I32" s="226"/>
+      <c r="J32" s="226"/>
+      <c r="K32" s="227"/>
       <c r="L32" s="80"/>
       <c r="M32" s="76"/>
       <c r="N32" s="81"/>
@@ -4143,13 +4163,13 @@
       <c r="G33" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="194">
+      <c r="H33" s="226">
         <f>requi!M22</f>
         <v>0</v>
       </c>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="195"/>
+      <c r="I33" s="226"/>
+      <c r="J33" s="226"/>
+      <c r="K33" s="227"/>
       <c r="L33" s="80"/>
       <c r="M33" s="76"/>
       <c r="N33" s="81"/>
@@ -4169,31 +4189,31 @@
       <c r="G34" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="194">
+      <c r="H34" s="226">
         <f>requi!M21</f>
         <v>0</v>
       </c>
-      <c r="I34" s="194"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="195"/>
+      <c r="I34" s="226"/>
+      <c r="J34" s="226"/>
+      <c r="K34" s="227"/>
       <c r="L34" s="80"/>
       <c r="M34" s="76"/>
       <c r="N34" s="81"/>
     </row>
     <row r="35" spans="2:14" ht="10.9" customHeight="1">
-      <c r="B35" s="182" t="str">
+      <c r="B35" s="214" t="str">
         <f>PesosMN(M43)</f>
         <v>SON: ( PESO 00/100 M.N.)</v>
       </c>
-      <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="183"/>
-      <c r="J35" s="183"/>
-      <c r="K35" s="184"/>
+      <c r="C35" s="215"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="216"/>
       <c r="L35" s="80"/>
       <c r="M35" s="99" t="s">
         <v>29</v>
@@ -4201,18 +4221,18 @@
       <c r="N35" s="100"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="185" t="str">
+      <c r="B36" s="217" t="str">
         <f>C6</f>
         <v>TRITURADOS BASÁLTICOS TEPETLAOXTOC</v>
       </c>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="187"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="219"/>
       <c r="K36" s="86"/>
       <c r="L36" s="80" t="s">
         <v>29</v>
@@ -4223,21 +4243,21 @@
       <c r="N36" s="100"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="188" t="s">
+      <c r="B37" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="189"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="190" t="s">
+      <c r="C37" s="221"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="191"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="189" t="s">
+      <c r="F37" s="223"/>
+      <c r="G37" s="224"/>
+      <c r="H37" s="221" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="189"/>
-      <c r="J37" s="193"/>
+      <c r="I37" s="221"/>
+      <c r="J37" s="225"/>
       <c r="K37" s="86"/>
       <c r="L37" s="80" t="s">
         <v>29</v>
@@ -4263,21 +4283,21 @@
       <c r="N38" s="109"/>
     </row>
     <row r="39" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="240" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="166" t="s">
+      <c r="C39" s="229"/>
+      <c r="D39" s="229"/>
+      <c r="E39" s="228" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="167"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="167" t="s">
+      <c r="F39" s="229"/>
+      <c r="G39" s="230"/>
+      <c r="H39" s="229" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="167"/>
-      <c r="J39" s="168"/>
+      <c r="I39" s="229"/>
+      <c r="J39" s="230"/>
       <c r="K39" s="110"/>
       <c r="L39" s="111" t="s">
         <v>72</v>
@@ -4289,17 +4309,17 @@
       <c r="N39" s="113"/>
     </row>
     <row r="40" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="171"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="212"/>
+      <c r="E40" s="212"/>
+      <c r="F40" s="212"/>
+      <c r="G40" s="212"/>
+      <c r="H40" s="212"/>
+      <c r="I40" s="212"/>
+      <c r="J40" s="213"/>
       <c r="K40" s="114"/>
       <c r="L40" s="115" t="s">
         <v>74</v>
@@ -4331,12 +4351,12 @@
         <v>76</v>
       </c>
       <c r="G42" s="124"/>
-      <c r="H42" s="172">
+      <c r="H42" s="232">
         <f>+G7</f>
         <v>0</v>
       </c>
-      <c r="I42" s="172"/>
-      <c r="J42" s="173"/>
+      <c r="I42" s="232"/>
+      <c r="J42" s="233"/>
       <c r="K42" s="114"/>
       <c r="L42" s="115" t="s">
         <v>77</v>
@@ -4345,21 +4365,21 @@
       <c r="N42" s="113"/>
     </row>
     <row r="43" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B43" s="174" t="s">
+      <c r="B43" s="234" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="175"/>
-      <c r="D43" s="175"/>
-      <c r="E43" s="176" t="s">
+      <c r="C43" s="235"/>
+      <c r="D43" s="235"/>
+      <c r="E43" s="236" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="177"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="175" t="s">
+      <c r="F43" s="237"/>
+      <c r="G43" s="238"/>
+      <c r="H43" s="235" t="s">
         <v>80</v>
       </c>
-      <c r="I43" s="175"/>
-      <c r="J43" s="179"/>
+      <c r="I43" s="235"/>
+      <c r="J43" s="239"/>
       <c r="K43" s="125" t="s">
         <v>29</v>
       </c>
@@ -4373,8 +4393,19 @@
       <c r="N43" s="113"/>
     </row>
     <row r="44" spans="2:14" ht="13.5" thickTop="1">
-      <c r="M44" s="128"/>
-      <c r="N44" s="129"/>
+      <c r="B44" s="241"/>
+      <c r="C44" s="241"/>
+      <c r="D44" s="241"/>
+      <c r="E44" s="241"/>
+      <c r="F44" s="241"/>
+      <c r="G44" s="241"/>
+      <c r="H44" s="241"/>
+      <c r="I44" s="241"/>
+      <c r="J44" s="241"/>
+      <c r="K44" s="241"/>
+      <c r="L44" s="241"/>
+      <c r="M44" s="242"/>
+      <c r="N44" s="128"/>
     </row>
     <row r="45" spans="2:14">
       <c r="M45" s="15"/>
@@ -4536,30 +4567,28 @@
       <c r="M97" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
+  <mergeCells count="56">
+    <mergeCell ref="B44:M44"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H34:K34"/>
     <mergeCell ref="F25:K25"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F15:K15"/>
@@ -4572,26 +4601,29 @@
     <mergeCell ref="F22:K22"/>
     <mergeCell ref="F23:K23"/>
     <mergeCell ref="F24:K24"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/ExcelsStorageRequis/plantillas/maquinaria/NoFactura.xlsx
+++ b/src/ExcelsStorageRequis/plantillas/maquinaria/NoFactura.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\src\ExcelsStorageRequis\plantillas\maquinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D49AE-8F44-4BC9-ADD0-575BEDEA00DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED07AF13-06FA-441C-ADA3-98CAC94DF124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
   </bookViews>
   <sheets>
     <sheet name="requi" sheetId="1" r:id="rId1"/>
     <sheet name="compra" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">compra!$B$2:$M$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">requi!$A$1:$P$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">compra!$B$2:$M$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">requi!$A$1:$P$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -504,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -1473,6 +1473,37 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1485,7 +1516,7 @@
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1774,6 +1805,105 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1789,95 +1919,179 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1897,9 +2111,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1942,176 +2153,32 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2186,13 +2253,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>30278</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>87656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>273843</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>107154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2325,11 +2392,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>770890</xdr:colOff>
+      <xdr:colOff>742314</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="783590" cy="706120"/>
+    <xdr:ext cx="634201" cy="571500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Imagen 3">
@@ -2358,8 +2425,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1121410" y="223520"/>
-          <a:ext cx="783590" cy="706120"/>
+          <a:off x="1085214" y="200026"/>
+          <a:ext cx="634201" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2395,13 +2462,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>142069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>150466</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2753,10 +2820,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:U38"/>
+  <dimension ref="B2:U45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2783,70 +2850,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" customHeight="1">
-      <c r="F2" s="130" t="s">
+      <c r="F2" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
       <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="35.25" customHeight="1">
-      <c r="F3" s="131" t="s">
+      <c r="F3" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
     <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="133" t="s">
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="134"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="167"/>
       <c r="O5" s="29"/>
     </row>
     <row r="6" spans="2:15" ht="15.75">
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
       <c r="H7" s="27" t="s">
         <v>38</v>
       </c>
@@ -2854,17 +2921,17 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="137" t="s">
+      <c r="M7" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
     </row>
     <row r="8" spans="2:15" ht="12.75" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
       <c r="H8" s="22"/>
       <c r="I8" s="21" t="s">
         <v>36</v>
@@ -2874,10 +2941,10 @@
       <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
       <c r="H9" s="22"/>
       <c r="I9" s="21" t="s">
         <v>34</v>
@@ -2902,10 +2969,10 @@
       <c r="B11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2937,52 +3004,52 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="140" t="s">
+      <c r="B17" s="157" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="142" t="s">
+      <c r="D17" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="142" t="s">
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="140" t="s">
+      <c r="J17" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="140" t="s">
+      <c r="K17" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="142" t="s">
+      <c r="L17" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="144"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="143"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="141"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="147"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="146"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="18"/>
@@ -3005,48 +3072,48 @@
         <v>1</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="150"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="149"/>
       <c r="I20" s="17"/>
       <c r="J20" s="34"/>
       <c r="K20" s="16"/>
       <c r="L20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="155"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="156"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="152"/>
       <c r="R20" s="1"/>
-      <c r="T20" s="151"/>
-      <c r="U20" s="151"/>
+      <c r="T20" s="150"/>
+      <c r="U20" s="150"/>
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="12">
-        <f t="shared" ref="B21:B31" si="0">+B20+1</f>
+        <f t="shared" ref="B21:B38" si="0">+B20+1</f>
         <v>2</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="154"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="137"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="158"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="154"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="151"/>
+      <c r="T21" s="150"/>
+      <c r="U21" s="150"/>
     </row>
     <row r="22" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="12">
@@ -3054,25 +3121,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="154"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="137"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="151"/>
+      <c r="T22" s="150"/>
+      <c r="U22" s="150"/>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="12">
@@ -3080,24 +3147,24 @@
         <v>4</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="154"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="137"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="158"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="154"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="151"/>
-      <c r="U23" s="151"/>
+      <c r="T23" s="150"/>
+      <c r="U23" s="150"/>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="12">
@@ -3105,24 +3172,24 @@
         <v>5</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="154"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="137"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="158"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="154"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="151"/>
-      <c r="U24" s="151"/>
+      <c r="T24" s="150"/>
+      <c r="U24" s="150"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="12">
@@ -3130,24 +3197,24 @@
         <v>6</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="154"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="137"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="159"/>
-      <c r="N25" s="159"/>
-      <c r="O25" s="160"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="156"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="151"/>
-      <c r="U25" s="151"/>
+      <c r="T25" s="150"/>
+      <c r="U25" s="150"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="12">
@@ -3155,13 +3222,22 @@
         <v>7</v>
       </c>
       <c r="C26" s="12"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="250"/>
+      <c r="F26" s="250"/>
+      <c r="G26" s="250"/>
+      <c r="H26" s="251"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="9"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="132"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="1"/>
+      <c r="T26" s="130"/>
+      <c r="U26" s="130"/>
     </row>
     <row r="27" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="12">
@@ -3169,18 +3245,22 @@
         <v>8</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="154"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="250"/>
+      <c r="F27" s="250"/>
+      <c r="G27" s="250"/>
+      <c r="H27" s="251"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="9"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="132"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="1"/>
+      <c r="T27" s="130"/>
+      <c r="U27" s="130"/>
     </row>
     <row r="28" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="12">
@@ -3188,18 +3268,22 @@
         <v>9</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="154"/>
+      <c r="D28" s="246"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="247"/>
+      <c r="G28" s="247"/>
+      <c r="H28" s="248"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="9"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="132"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="1"/>
+      <c r="T28" s="130"/>
+      <c r="U28" s="130"/>
     </row>
     <row r="29" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="12">
@@ -3207,13 +3291,22 @@
         <v>10</v>
       </c>
       <c r="C29" s="12"/>
+      <c r="D29" s="246"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="247"/>
+      <c r="G29" s="247"/>
+      <c r="H29" s="248"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="9"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="132"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="1"/>
+      <c r="T29" s="130"/>
+      <c r="U29" s="130"/>
     </row>
     <row r="30" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="12">
@@ -3221,140 +3314,286 @@
         <v>11</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="154"/>
+      <c r="D30" s="246"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="247"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="248"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="9"/>
-    </row>
-    <row r="31" spans="2:21" ht="19.5" customHeight="1">
-      <c r="B31" s="8">
+      <c r="L30" s="32"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="132"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="1"/>
+      <c r="T30" s="130"/>
+      <c r="U30" s="130"/>
+    </row>
+    <row r="31" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="162" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="246"/>
+      <c r="E31" s="247"/>
+      <c r="F31" s="247"/>
+      <c r="G31" s="247"/>
+      <c r="H31" s="248"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="132"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="1"/>
+      <c r="T31" s="130"/>
+      <c r="U31" s="130"/>
+    </row>
+    <row r="32" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="246"/>
+      <c r="E32" s="247"/>
+      <c r="F32" s="247"/>
+      <c r="G32" s="247"/>
+      <c r="H32" s="248"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="132"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="1"/>
+      <c r="T32" s="130"/>
+      <c r="U32" s="130"/>
+    </row>
+    <row r="33" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="246"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="247"/>
+      <c r="G33" s="247"/>
+      <c r="H33" s="248"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="2:20" ht="19.5" customHeight="1">
+      <c r="B38" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="2:21">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" s="1" customFormat="1">
-      <c r="B33" s="161" t="s">
+      <c r="E38" s="139"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" s="1" customFormat="1">
+      <c r="B40" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="161"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
+      <c r="C40" s="134"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2" t="s">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2" t="s">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:15" s="1" customFormat="1">
-      <c r="B36" s="138" t="s">
+    <row r="43" spans="2:20" s="1" customFormat="1">
+      <c r="B43" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="161"/>
-      <c r="F36" s="1" t="s">
+      <c r="C43" s="134"/>
+      <c r="F43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="1" t="s">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="1" t="s">
+      <c r="L43" s="2"/>
+      <c r="M43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:15" s="1" customFormat="1">
-      <c r="B37" s="138" t="s">
+    <row r="44" spans="2:20" s="1" customFormat="1">
+      <c r="B44" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="138"/>
-      <c r="F37" s="1" t="s">
+      <c r="C44" s="133"/>
+      <c r="F44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="138"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="138"/>
-      <c r="N38" s="138"/>
-      <c r="O38" s="138"/>
+      <c r="M44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="133"/>
+      <c r="O45" s="133"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B38:O38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
+  <mergeCells count="43">
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:O18"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="T20:U25"/>
@@ -3368,21 +3607,21 @@
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="M25:O25"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B45:O45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -3395,10 +3634,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC632B1E-9A63-463F-AD19-4D6F88E4DF95}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:N97"/>
+  <dimension ref="B1:N102"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3420,7 +3659,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="13.5" thickBot="1"/>
-    <row r="2" spans="2:14" ht="16.5" customHeight="1" thickTop="1">
+    <row r="2" spans="2:14" ht="6" customHeight="1" thickTop="1">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
       <c r="D2" s="39"/>
@@ -3438,19 +3677,19 @@
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="165" t="s">
+      <c r="E3" s="226" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="166" t="s">
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
+      <c r="L3" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="167"/>
+      <c r="M3" s="228"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14">
@@ -3476,95 +3715,95 @@
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="168" t="s">
+      <c r="L5" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="169"/>
+      <c r="M5" s="230"/>
       <c r="N5" s="54"/>
     </row>
     <row r="6" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="231" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="176" t="s">
+      <c r="D6" s="232"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="233"/>
+      <c r="G6" s="236" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="179">
+      <c r="H6" s="237"/>
+      <c r="I6" s="237"/>
+      <c r="J6" s="237"/>
+      <c r="K6" s="238"/>
+      <c r="L6" s="239">
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="M6" s="180"/>
+      <c r="M6" s="240"/>
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="171"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="181">
+      <c r="B7" s="217"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="241">
         <f>requi!K20</f>
         <v>0</v>
       </c>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="184" t="s">
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="243"/>
+      <c r="L7" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="185"/>
+      <c r="M7" s="245"/>
       <c r="N7" s="46"/>
     </row>
     <row r="8" spans="2:14" ht="12.95" customHeight="1">
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="216" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="187" t="s">
+      <c r="C8" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="191" t="s">
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="193">
+      <c r="H8" s="218"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="219"/>
+      <c r="L8" s="224">
         <f>requi!C11</f>
         <v>0</v>
       </c>
-      <c r="M8" s="194"/>
+      <c r="M8" s="225"/>
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="171"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="195" t="s">
+      <c r="B9" s="217"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="221"/>
+      <c r="L9" s="212" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="196"/>
+      <c r="M9" s="213"/>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14">
@@ -3580,64 +3819,64 @@
       <c r="G10" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="197">
+      <c r="H10" s="206">
         <f>requi!M20</f>
         <v>0</v>
       </c>
-      <c r="I10" s="197"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="199">
+      <c r="I10" s="206"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="207"/>
+      <c r="L10" s="208">
         <f>requi!O5</f>
         <v>0</v>
       </c>
-      <c r="M10" s="200"/>
+      <c r="M10" s="209"/>
       <c r="N10" s="61"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="201">
+      <c r="C11" s="210">
         <f>requi!C7</f>
         <v>0</v>
       </c>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="202"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="211"/>
       <c r="G11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="197" t="s">
+      <c r="H11" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="197"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="195" t="s">
+      <c r="I11" s="206"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="207"/>
+      <c r="L11" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="196"/>
+      <c r="M11" s="213"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="201"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="211"/>
       <c r="G12" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="197" t="s">
+      <c r="H12" s="206" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="203"/>
-      <c r="M12" s="204"/>
+      <c r="I12" s="206"/>
+      <c r="J12" s="206"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="215"/>
     </row>
     <row r="13" spans="2:14" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="B13" s="62"/>
@@ -3648,18 +3887,18 @@
       <c r="G13" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="206">
-        <f>H29</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="206"/>
-      <c r="J13" s="206"/>
-      <c r="K13" s="207"/>
+      <c r="H13" s="201">
+        <f>H34</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="201"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="202"/>
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
       <c r="N13" s="46"/>
     </row>
-    <row r="14" spans="2:14" ht="14.25" thickTop="1" thickBot="1">
+    <row r="14" spans="2:14" ht="5.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="M14" s="15"/>
     </row>
     <row r="15" spans="2:14" ht="13.5" thickBot="1">
@@ -3675,14 +3914,14 @@
       <c r="E15" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="208" t="s">
+      <c r="F15" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="209"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="210"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="204"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="205"/>
       <c r="L15" s="70" t="s">
         <v>63</v>
       </c>
@@ -3707,18 +3946,18 @@
         <f>requi!C20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="205">
+      <c r="F16" s="200">
         <f>requi!D20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="205"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="200"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76">
-        <f t="shared" ref="M16:M27" si="0">L16*C16</f>
+        <f t="shared" ref="M16:M32" si="0">L16*C16</f>
         <v>0</v>
       </c>
       <c r="N16" s="77"/>
@@ -3739,15 +3978,15 @@
         <f>requi!C21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="205">
+      <c r="F17" s="200">
         <f>requi!D21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="205"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="205"/>
-      <c r="K17" s="205"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="200"/>
       <c r="L17" s="80"/>
       <c r="M17" s="76">
         <f t="shared" si="0"/>
@@ -3771,15 +4010,15 @@
         <f>requi!C22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="205">
+      <c r="F18" s="200">
         <f>requi!D22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="205"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="205"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="205"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="200"/>
       <c r="L18" s="80"/>
       <c r="M18" s="76">
         <f t="shared" si="0"/>
@@ -3803,15 +4042,15 @@
         <f>requi!C23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="205">
+      <c r="F19" s="200">
         <f>requi!D23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="205"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="200"/>
       <c r="L19" s="80"/>
       <c r="M19" s="76">
         <f t="shared" si="0"/>
@@ -3835,15 +4074,15 @@
         <f>requi!C24</f>
         <v>0</v>
       </c>
-      <c r="F20" s="205">
+      <c r="F20" s="200">
         <f>requi!D24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="205"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="205"/>
-      <c r="K20" s="205"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="200"/>
       <c r="L20" s="80"/>
       <c r="M20" s="76">
         <f t="shared" si="0"/>
@@ -3867,15 +4106,15 @@
         <f>requi!C25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="205">
+      <c r="F21" s="200">
         <f>requi!D25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="205"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="205"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="200"/>
       <c r="L21" s="80"/>
       <c r="M21" s="76">
         <f t="shared" si="0"/>
@@ -3887,225 +4126,195 @@
       <c r="B22" s="74">
         <v>7</v>
       </c>
-      <c r="C22" s="129">
-        <f>requi!J26</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="129">
-        <f>requi!I26</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="129">
-        <f>requi!C26</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="205">
-        <f>requi!D26</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="205"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="253"/>
+      <c r="H22" s="253"/>
+      <c r="I22" s="253"/>
+      <c r="J22" s="253"/>
+      <c r="K22" s="254"/>
       <c r="L22" s="80"/>
-      <c r="M22" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M22" s="76"/>
       <c r="N22" s="81"/>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="74">
         <v>8</v>
       </c>
-      <c r="C23" s="129">
-        <f>requi!J27</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="129">
-        <f>requi!I27</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="129">
-        <f>requi!C27</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="205">
-        <f>requi!D27</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="205"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="205"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="252"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="254"/>
       <c r="L23" s="80"/>
-      <c r="M23" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M23" s="76"/>
       <c r="N23" s="81"/>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="74">
         <v>9</v>
       </c>
-      <c r="C24" s="129">
-        <f>requi!J28</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="129">
-        <f>requi!I28</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="129">
-        <f>requi!C28</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="205">
-        <f>requi!D28</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="205"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="205"/>
-      <c r="J24" s="205"/>
-      <c r="K24" s="205"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="252"/>
+      <c r="G24" s="253"/>
+      <c r="H24" s="253"/>
+      <c r="I24" s="253"/>
+      <c r="J24" s="253"/>
+      <c r="K24" s="254"/>
       <c r="L24" s="80"/>
-      <c r="M24" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M24" s="76"/>
       <c r="N24" s="81"/>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="74">
         <v>10</v>
       </c>
-      <c r="C25" s="129">
-        <f>requi!J29</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="129">
-        <f>requi!I29</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="129">
-        <f>requi!C29</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="205"/>
-      <c r="K25" s="205"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="252"/>
+      <c r="G25" s="253"/>
+      <c r="H25" s="253"/>
+      <c r="I25" s="253"/>
+      <c r="J25" s="253"/>
+      <c r="K25" s="254"/>
       <c r="L25" s="80"/>
-      <c r="M25" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M25" s="76"/>
       <c r="N25" s="81"/>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="74">
         <v>11</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="211"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="212"/>
-      <c r="J26" s="212"/>
-      <c r="K26" s="213"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="252"/>
+      <c r="G26" s="253"/>
+      <c r="H26" s="253"/>
+      <c r="I26" s="253"/>
+      <c r="J26" s="253"/>
+      <c r="K26" s="254"/>
       <c r="L26" s="80"/>
-      <c r="M26" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M26" s="76"/>
       <c r="N26" s="81"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="74">
         <v>12</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="252"/>
+      <c r="G27" s="253"/>
+      <c r="H27" s="253"/>
+      <c r="I27" s="253"/>
+      <c r="J27" s="253"/>
+      <c r="K27" s="254"/>
       <c r="L27" s="80"/>
-      <c r="M27" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M27" s="76"/>
       <c r="N27" s="81"/>
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="74">
         <v>13</v>
       </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
+      <c r="C28" s="129">
+        <f>requi!J33</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="129">
+        <f>requi!I33</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="129">
+        <f>requi!C33</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="200">
+        <f>requi!D33</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="200"/>
+      <c r="H28" s="200"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="200"/>
       <c r="L28" s="80"/>
-      <c r="M28" s="76"/>
+      <c r="M28" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N28" s="81"/>
     </row>
-    <row r="29" spans="2:14" ht="13.5" customHeight="1">
+    <row r="29" spans="2:14">
       <c r="B29" s="74">
         <v>14</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="226"/>
-      <c r="I29" s="226"/>
-      <c r="J29" s="226"/>
-      <c r="K29" s="227"/>
+      <c r="C29" s="129">
+        <f>requi!J34</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="129">
+        <f>requi!I34</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="129">
+        <f>requi!C34</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="200">
+        <f>requi!D34</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="200"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="200"/>
       <c r="L29" s="80"/>
-      <c r="M29" s="76"/>
+      <c r="M29" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N29" s="81"/>
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="74">
         <v>15</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="226">
-        <f>requi!M23</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="226"/>
-      <c r="J30" s="226"/>
-      <c r="K30" s="227"/>
+      <c r="C30" s="129">
+        <f>requi!J36</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="129">
+        <f>requi!I36</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="129">
+        <f>requi!C36</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="200"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="200"/>
       <c r="L30" s="80"/>
-      <c r="M30" s="76"/>
+      <c r="M30" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N30" s="81"/>
     </row>
     <row r="31" spans="2:14">
@@ -4114,20 +4323,18 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="82"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="226">
-        <f>requi!M24</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="226"/>
-      <c r="J31" s="226"/>
-      <c r="K31" s="227"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="175"/>
       <c r="L31" s="80"/>
-      <c r="M31" s="76"/>
+      <c r="M31" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N31" s="81"/>
     </row>
     <row r="32" spans="2:14">
@@ -4136,335 +4343,422 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="82"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="226">
-        <f>requi!M25</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="226"/>
-      <c r="J32" s="226"/>
-      <c r="K32" s="227"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="86"/>
       <c r="L32" s="80"/>
-      <c r="M32" s="76"/>
+      <c r="M32" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N32" s="81"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="74">
         <v>18</v>
       </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="226">
-        <f>requi!M22</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="226"/>
-      <c r="J33" s="226"/>
-      <c r="K33" s="227"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
       <c r="L33" s="80"/>
       <c r="M33" s="76"/>
       <c r="N33" s="81"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" ht="13.5" customHeight="1">
       <c r="B34" s="74">
         <v>19</v>
       </c>
-      <c r="C34" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="226">
-        <f>requi!M21</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="226"/>
-      <c r="J34" s="226"/>
-      <c r="K34" s="227"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="198"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="199"/>
       <c r="L34" s="80"/>
       <c r="M34" s="76"/>
       <c r="N34" s="81"/>
     </row>
-    <row r="35" spans="2:14" ht="10.9" customHeight="1">
-      <c r="B35" s="214" t="str">
-        <f>PesosMN(M43)</f>
-        <v>SON: ( PESO 00/100 M.N.)</v>
-      </c>
-      <c r="C35" s="215"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="215"/>
-      <c r="K35" s="216"/>
+    <row r="35" spans="2:14">
+      <c r="B35" s="74">
+        <v>20</v>
+      </c>
+      <c r="C35" s="78"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="198">
+        <f>requi!M23</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="198"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="199"/>
       <c r="L35" s="80"/>
-      <c r="M35" s="99" t="s">
+      <c r="M35" s="76"/>
+      <c r="N35" s="81"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="74">
+        <v>21</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="198">
+        <f>requi!M24</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="198"/>
+      <c r="J36" s="198"/>
+      <c r="K36" s="199"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="81"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="74">
+        <v>22</v>
+      </c>
+      <c r="C37" s="78"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="198">
+        <f>requi!M25</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="198"/>
+      <c r="J37" s="198"/>
+      <c r="K37" s="199"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="81"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="74">
+        <v>23</v>
+      </c>
+      <c r="C38" s="95"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="198">
+        <f>requi!M22</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="198"/>
+      <c r="J38" s="198"/>
+      <c r="K38" s="199"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="81"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="74">
+        <v>24</v>
+      </c>
+      <c r="C39" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="100"/>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36" s="217" t="str">
+      <c r="D39" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="79"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="198">
+        <f>requi!M21</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="198"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="199"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="81"/>
+    </row>
+    <row r="40" spans="2:14" ht="10.9" customHeight="1">
+      <c r="B40" s="186" t="e">
+        <f ca="1">PesosMN(M48)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C40" s="187"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="187"/>
+      <c r="K40" s="188"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="100"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="189" t="str">
         <f>C6</f>
         <v>TRITURADOS BASÁLTICOS TEPETLAOXTOC</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="218"/>
-      <c r="E36" s="218"/>
-      <c r="F36" s="218"/>
-      <c r="G36" s="218"/>
-      <c r="H36" s="218"/>
-      <c r="I36" s="218"/>
-      <c r="J36" s="219"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="80" t="s">
+      <c r="C41" s="190"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="190"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="191"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="101" t="s">
+      <c r="M41" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="N36" s="100"/>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" s="220" t="s">
+      <c r="N41" s="100"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="192" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="221"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222" t="s">
+      <c r="C42" s="193"/>
+      <c r="D42" s="193"/>
+      <c r="E42" s="194" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="223"/>
-      <c r="G37" s="224"/>
-      <c r="H37" s="221" t="s">
+      <c r="F42" s="195"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="221"/>
-      <c r="J37" s="225"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="80" t="s">
+      <c r="I42" s="193"/>
+      <c r="J42" s="197"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="M37" s="101" t="s">
+      <c r="M42" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="N37" s="100"/>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="109"/>
-    </row>
-    <row r="39" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B39" s="240" t="s">
+      <c r="N42" s="100"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="102"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="109"/>
+    </row>
+    <row r="44" spans="2:14" ht="18.75" customHeight="1">
+      <c r="B44" s="184" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="229"/>
-      <c r="D39" s="229"/>
-      <c r="E39" s="228" t="s">
+      <c r="C44" s="171"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="170" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="229"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="229" t="s">
+      <c r="F44" s="171"/>
+      <c r="G44" s="172"/>
+      <c r="H44" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="229"/>
-      <c r="J39" s="230"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="111" t="s">
+      <c r="I44" s="171"/>
+      <c r="J44" s="172"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="M39" s="112">
-        <f>SUM(M16:M35)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="113"/>
-    </row>
-    <row r="40" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B40" s="231" t="s">
+      <c r="M44" s="112">
+        <f>SUM(M16:M40)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="113"/>
+    </row>
+    <row r="45" spans="2:14" ht="14.45" customHeight="1">
+      <c r="B45" s="173" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="212"/>
-      <c r="D40" s="212"/>
-      <c r="E40" s="212"/>
-      <c r="F40" s="212"/>
-      <c r="G40" s="212"/>
-      <c r="H40" s="212"/>
-      <c r="I40" s="212"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="115" t="s">
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
+      <c r="E45" s="174"/>
+      <c r="F45" s="174"/>
+      <c r="G45" s="174"/>
+      <c r="H45" s="174"/>
+      <c r="I45" s="174"/>
+      <c r="J45" s="175"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="M40" s="112"/>
-      <c r="N40" s="113"/>
-    </row>
-    <row r="41" spans="2:14" ht="13.15" customHeight="1">
-      <c r="B41" s="116"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="120"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="115" t="s">
+      <c r="M45" s="112"/>
+      <c r="N45" s="113"/>
+    </row>
+    <row r="46" spans="2:14" ht="13.15" customHeight="1">
+      <c r="B46" s="116"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="M41" s="112"/>
-      <c r="N41" s="113"/>
-    </row>
-    <row r="42" spans="2:14" ht="11.45" customHeight="1">
-      <c r="B42" s="121"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="123" t="s">
+      <c r="M46" s="112"/>
+      <c r="N46" s="113"/>
+    </row>
+    <row r="47" spans="2:14" ht="11.45" customHeight="1">
+      <c r="B47" s="121"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="G42" s="124"/>
-      <c r="H42" s="232">
+      <c r="G47" s="124"/>
+      <c r="H47" s="176">
         <f>+G7</f>
         <v>0</v>
       </c>
-      <c r="I42" s="232"/>
-      <c r="J42" s="233"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="115" t="s">
+      <c r="I47" s="176"/>
+      <c r="J47" s="177"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="M42" s="112"/>
-      <c r="N42" s="113"/>
-    </row>
-    <row r="43" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B43" s="234" t="s">
+      <c r="M47" s="112"/>
+      <c r="N47" s="113"/>
+    </row>
+    <row r="48" spans="2:14" ht="15" customHeight="1" thickBot="1">
+      <c r="B48" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="235"/>
-      <c r="D43" s="235"/>
-      <c r="E43" s="236" t="s">
+      <c r="C48" s="179"/>
+      <c r="D48" s="179"/>
+      <c r="E48" s="180" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="237"/>
-      <c r="G43" s="238"/>
-      <c r="H43" s="235" t="s">
+      <c r="F48" s="181"/>
+      <c r="G48" s="182"/>
+      <c r="H48" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="I43" s="235"/>
-      <c r="J43" s="239"/>
-      <c r="K43" s="125" t="s">
+      <c r="I48" s="179"/>
+      <c r="J48" s="183"/>
+      <c r="K48" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="L43" s="126" t="s">
+      <c r="L48" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="127">
-        <f>+M39+M40-M41-M42</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="113"/>
-    </row>
-    <row r="44" spans="2:14" ht="13.5" thickTop="1">
-      <c r="B44" s="241"/>
-      <c r="C44" s="241"/>
-      <c r="D44" s="241"/>
-      <c r="E44" s="241"/>
-      <c r="F44" s="241"/>
-      <c r="G44" s="241"/>
-      <c r="H44" s="241"/>
-      <c r="I44" s="241"/>
-      <c r="J44" s="241"/>
-      <c r="K44" s="241"/>
-      <c r="L44" s="241"/>
-      <c r="M44" s="242"/>
-      <c r="N44" s="128"/>
-    </row>
-    <row r="45" spans="2:14">
-      <c r="M45" s="15"/>
-    </row>
-    <row r="46" spans="2:14">
-      <c r="M46" s="15"/>
-    </row>
-    <row r="47" spans="2:14">
-      <c r="M47" s="15"/>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="M48" s="15"/>
-    </row>
-    <row r="49" spans="13:13">
-      <c r="M49" s="15"/>
-    </row>
-    <row r="50" spans="13:13">
+      <c r="M48" s="127">
+        <f>+M44+M45-M46-M47</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="113"/>
+    </row>
+    <row r="49" spans="2:14" ht="13.5" thickTop="1">
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="168"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="168"/>
+      <c r="K49" s="168"/>
+      <c r="L49" s="168"/>
+      <c r="M49" s="169"/>
+      <c r="N49" s="128"/>
+    </row>
+    <row r="50" spans="2:14">
       <c r="M50" s="15"/>
     </row>
-    <row r="51" spans="13:13">
+    <row r="51" spans="2:14">
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="13:13">
+    <row r="52" spans="2:14">
       <c r="M52" s="15"/>
     </row>
-    <row r="53" spans="13:13">
+    <row r="53" spans="2:14">
       <c r="M53" s="15"/>
     </row>
-    <row r="54" spans="13:13">
+    <row r="54" spans="2:14">
       <c r="M54" s="15"/>
     </row>
-    <row r="55" spans="13:13">
+    <row r="55" spans="2:14">
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="13:13">
+    <row r="56" spans="2:14">
       <c r="M56" s="15"/>
     </row>
-    <row r="57" spans="13:13">
+    <row r="57" spans="2:14">
       <c r="M57" s="15"/>
     </row>
-    <row r="58" spans="13:13">
+    <row r="58" spans="2:14">
       <c r="M58" s="15"/>
     </row>
-    <row r="59" spans="13:13">
+    <row r="59" spans="2:14">
       <c r="M59" s="15"/>
     </row>
-    <row r="60" spans="13:13">
+    <row r="60" spans="2:14">
       <c r="M60" s="15"/>
     </row>
-    <row r="61" spans="13:13">
+    <row r="61" spans="2:14">
       <c r="M61" s="15"/>
     </row>
-    <row r="62" spans="13:13">
+    <row r="62" spans="2:14">
       <c r="M62" s="15"/>
     </row>
-    <row r="63" spans="13:13">
+    <row r="63" spans="2:14">
       <c r="M63" s="15"/>
     </row>
-    <row r="64" spans="13:13">
+    <row r="64" spans="2:14">
       <c r="M64" s="15"/>
     </row>
     <row r="65" spans="13:13">
@@ -4566,55 +4860,25 @@
     <row r="97" spans="13:13">
       <c r="M97" s="15"/>
     </row>
+    <row r="98" spans="13:13">
+      <c r="M98" s="15"/>
+    </row>
+    <row r="99" spans="13:13">
+      <c r="M99" s="15"/>
+    </row>
+    <row r="100" spans="13:13">
+      <c r="M100" s="15"/>
+    </row>
+    <row r="101" spans="13:13">
+      <c r="M101" s="15"/>
+    </row>
+    <row r="102" spans="13:13">
+      <c r="M102" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="B44:M44"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="B39:D39"/>
+  <mergeCells count="61">
     <mergeCell ref="F26:K26"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="F27:K27"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L5:M5"/>
@@ -4624,6 +4888,56 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/ExcelsStorageRequis/plantillas/maquinaria/NoFactura.xlsx
+++ b/src/ExcelsStorageRequis/plantillas/maquinaria/NoFactura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\src\ExcelsStorageRequis\plantillas\maquinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED07AF13-06FA-441C-ADA3-98CAC94DF124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92930169-2A4D-4E10-9789-1E6A91F37882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
   </bookViews>
   <sheets>
     <sheet name="requi" sheetId="1" r:id="rId1"/>
@@ -1516,7 +1516,7 @@
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1814,21 +1814,111 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1838,86 +1928,203 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1935,12 +2142,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1969,216 +2170,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2822,8 +2813,8 @@
   </sheetPr>
   <dimension ref="B2:U45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2850,70 +2841,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" customHeight="1">
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
       <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="35.25" customHeight="1">
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
     <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-      <c r="K5" s="166" t="s">
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="167"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="140"/>
       <c r="O5" s="29"/>
     </row>
     <row r="6" spans="2:15" ht="15.75">
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
       <c r="H7" s="27" t="s">
         <v>38</v>
       </c>
@@ -2921,17 +2912,17 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="161" t="s">
+      <c r="M7" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
     </row>
     <row r="8" spans="2:15" ht="12.75" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
       <c r="H8" s="22"/>
       <c r="I8" s="21" t="s">
         <v>36</v>
@@ -2941,10 +2932,10 @@
       <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
       <c r="H9" s="22"/>
       <c r="I9" s="21" t="s">
         <v>34</v>
@@ -2969,10 +2960,10 @@
       <c r="B11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
@@ -3004,52 +2995,52 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="157" t="s">
+      <c r="B17" s="146" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="141" t="s">
+      <c r="D17" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="141" t="s">
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="157" t="s">
+      <c r="J17" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="157" t="s">
+      <c r="K17" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="141" t="s">
+      <c r="L17" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="143"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="150"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="158"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="146"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="153"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="18"/>
@@ -3072,23 +3063,23 @@
         <v>1</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="149"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="156"/>
       <c r="I20" s="17"/>
       <c r="J20" s="34"/>
       <c r="K20" s="16"/>
       <c r="L20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="152"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="162"/>
       <c r="R20" s="1"/>
-      <c r="T20" s="150"/>
-      <c r="U20" s="150"/>
+      <c r="T20" s="157"/>
+      <c r="U20" s="157"/>
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="12">
@@ -3096,24 +3087,24 @@
         <v>2</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="137"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="160"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="154"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="164"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="150"/>
-      <c r="U21" s="150"/>
+      <c r="T21" s="157"/>
+      <c r="U21" s="157"/>
     </row>
     <row r="22" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="12">
@@ -3121,25 +3112,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="137"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="160"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="150"/>
-      <c r="U22" s="150"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="12">
@@ -3147,24 +3138,24 @@
         <v>4</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="137"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="160"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="154"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="164"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="150"/>
-      <c r="U23" s="150"/>
+      <c r="T23" s="157"/>
+      <c r="U23" s="157"/>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="12">
@@ -3172,24 +3163,24 @@
         <v>5</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="137"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="160"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="154"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="164"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="150"/>
-      <c r="U24" s="150"/>
+      <c r="T24" s="157"/>
+      <c r="U24" s="157"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="12">
@@ -3197,24 +3188,24 @@
         <v>6</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="137"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="160"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="156"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="166"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="150"/>
-      <c r="U25" s="150"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="157"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="12">
@@ -3222,11 +3213,11 @@
         <v>7</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="249"/>
-      <c r="E26" s="250"/>
-      <c r="F26" s="250"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="251"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="135"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -3245,11 +3236,11 @@
         <v>8</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="249"/>
-      <c r="E27" s="250"/>
-      <c r="F27" s="250"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="251"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="135"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -3268,11 +3259,11 @@
         <v>9</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="247"/>
-      <c r="F28" s="247"/>
-      <c r="G28" s="247"/>
-      <c r="H28" s="248"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="173"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -3291,11 +3282,11 @@
         <v>10</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="246"/>
-      <c r="E29" s="247"/>
-      <c r="F29" s="247"/>
-      <c r="G29" s="247"/>
-      <c r="H29" s="248"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="173"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -3314,11 +3305,11 @@
         <v>11</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="246"/>
-      <c r="E30" s="247"/>
-      <c r="F30" s="247"/>
-      <c r="G30" s="247"/>
-      <c r="H30" s="248"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="173"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3337,11 +3328,11 @@
         <v>12</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="247"/>
-      <c r="F31" s="247"/>
-      <c r="G31" s="247"/>
-      <c r="H31" s="248"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="173"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -3360,11 +3351,11 @@
         <v>13</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="246"/>
-      <c r="E32" s="247"/>
-      <c r="F32" s="247"/>
-      <c r="G32" s="247"/>
-      <c r="H32" s="248"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="173"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -3383,11 +3374,11 @@
         <v>14</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="246"/>
-      <c r="E33" s="247"/>
-      <c r="F33" s="247"/>
-      <c r="G33" s="247"/>
-      <c r="H33" s="248"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="173"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -3402,11 +3393,11 @@
         <v>15</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="137"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="160"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -3421,11 +3412,11 @@
         <v>16</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="137"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="160"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
@@ -3454,11 +3445,11 @@
         <v>18</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="137"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="160"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
@@ -3473,13 +3464,13 @@
         <v>19</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="138" t="s">
+      <c r="D38" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="140"/>
+      <c r="E38" s="169"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="170"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -3510,10 +3501,10 @@
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="2:20" s="1" customFormat="1">
-      <c r="B40" s="134" t="s">
+      <c r="B40" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="134"/>
+      <c r="C40" s="167"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
         <v>8</v>
@@ -3529,10 +3520,10 @@
       </c>
     </row>
     <row r="43" spans="2:20" s="1" customFormat="1">
-      <c r="B43" s="133" t="s">
+      <c r="B43" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="134"/>
+      <c r="C43" s="167"/>
       <c r="F43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3547,10 +3538,10 @@
       </c>
     </row>
     <row r="44" spans="2:20" s="1" customFormat="1">
-      <c r="B44" s="133" t="s">
+      <c r="B44" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="133"/>
+      <c r="C44" s="144"/>
       <c r="F44" s="1" t="s">
         <v>2</v>
       </c>
@@ -3562,51 +3553,23 @@
       </c>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="133"/>
-      <c r="O45" s="133"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="144"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="144"/>
+      <c r="N45" s="144"/>
+      <c r="O45" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:O18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="T20:U25"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B45:O45"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B43:C43"/>
@@ -3622,6 +3585,34 @@
     <mergeCell ref="D31:H31"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="D33:H33"/>
+    <mergeCell ref="L17:O18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="T20:U25"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -3636,8 +3627,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:N102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3677,19 +3668,19 @@
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="226" t="s">
+      <c r="E3" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="227" t="s">
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="175" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="228"/>
+      <c r="M3" s="176"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14">
@@ -3715,95 +3706,95 @@
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="229" t="s">
+      <c r="L5" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="230"/>
+      <c r="M5" s="178"/>
       <c r="N5" s="54"/>
     </row>
     <row r="6" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="232" t="s">
+      <c r="C6" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="232"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="233"/>
-      <c r="G6" s="236" t="s">
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="237"/>
-      <c r="I6" s="237"/>
-      <c r="J6" s="237"/>
-      <c r="K6" s="238"/>
-      <c r="L6" s="239">
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="188">
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="M6" s="240"/>
+      <c r="M6" s="189"/>
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="217"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="235"/>
-      <c r="G7" s="241">
+      <c r="B7" s="180"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="190">
         <f>requi!K20</f>
         <v>0</v>
       </c>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="243"/>
-      <c r="L7" s="244" t="s">
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="245"/>
+      <c r="M7" s="194"/>
       <c r="N7" s="46"/>
     </row>
     <row r="8" spans="2:14" ht="12.95" customHeight="1">
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="196" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="222" t="s">
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="218"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="219"/>
-      <c r="L8" s="224">
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="202">
         <f>requi!C11</f>
         <v>0</v>
       </c>
-      <c r="M8" s="225"/>
+      <c r="M8" s="203"/>
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="217"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="223"/>
-      <c r="H9" s="220"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="221"/>
-      <c r="L9" s="212" t="s">
+      <c r="B9" s="180"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="213"/>
+      <c r="M9" s="205"/>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14">
@@ -3853,10 +3844,10 @@
       <c r="I11" s="206"/>
       <c r="J11" s="206"/>
       <c r="K11" s="207"/>
-      <c r="L11" s="212" t="s">
+      <c r="L11" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="213"/>
+      <c r="M11" s="205"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="56" t="s">
@@ -3875,8 +3866,8 @@
       <c r="I12" s="206"/>
       <c r="J12" s="206"/>
       <c r="K12" s="207"/>
-      <c r="L12" s="214"/>
-      <c r="M12" s="215"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="213"/>
     </row>
     <row r="13" spans="2:14" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="B13" s="62"/>
@@ -3887,13 +3878,13 @@
       <c r="G13" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="201">
+      <c r="H13" s="215">
         <f>H34</f>
         <v>0</v>
       </c>
-      <c r="I13" s="201"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="202"/>
+      <c r="I13" s="215"/>
+      <c r="J13" s="215"/>
+      <c r="K13" s="216"/>
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
       <c r="N13" s="46"/>
@@ -3914,14 +3905,14 @@
       <c r="E15" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="203" t="s">
+      <c r="F15" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="205"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="219"/>
       <c r="L15" s="70" t="s">
         <v>63</v>
       </c>
@@ -3946,15 +3937,15 @@
         <f>requi!C20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="200">
+      <c r="F16" s="214">
         <f>requi!D20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="200"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="214"/>
+      <c r="J16" s="214"/>
+      <c r="K16" s="214"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M32" si="0">L16*C16</f>
@@ -3978,15 +3969,15 @@
         <f>requi!C21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="214">
         <f>requi!D21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="200"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="200"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="214"/>
+      <c r="K17" s="214"/>
       <c r="L17" s="80"/>
       <c r="M17" s="76">
         <f t="shared" si="0"/>
@@ -4010,15 +4001,15 @@
         <f>requi!C22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="200">
+      <c r="F18" s="214">
         <f>requi!D22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="200"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
       <c r="L18" s="80"/>
       <c r="M18" s="76">
         <f t="shared" si="0"/>
@@ -4042,15 +4033,15 @@
         <f>requi!C23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="200">
+      <c r="F19" s="214">
         <f>requi!D23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="200"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="214"/>
       <c r="L19" s="80"/>
       <c r="M19" s="76">
         <f t="shared" si="0"/>
@@ -4074,15 +4065,15 @@
         <f>requi!C24</f>
         <v>0</v>
       </c>
-      <c r="F20" s="200">
+      <c r="F20" s="214">
         <f>requi!D24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="200"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="214"/>
+      <c r="I20" s="214"/>
+      <c r="J20" s="214"/>
+      <c r="K20" s="214"/>
       <c r="L20" s="80"/>
       <c r="M20" s="76">
         <f t="shared" si="0"/>
@@ -4106,15 +4097,15 @@
         <f>requi!C25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="200">
+      <c r="F21" s="214">
         <f>requi!D25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="200"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="214"/>
+      <c r="I21" s="214"/>
+      <c r="J21" s="214"/>
+      <c r="K21" s="214"/>
       <c r="L21" s="80"/>
       <c r="M21" s="76">
         <f t="shared" si="0"/>
@@ -4126,15 +4117,27 @@
       <c r="B22" s="74">
         <v>7</v>
       </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="253"/>
-      <c r="H22" s="253"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="253"/>
-      <c r="K22" s="254"/>
+      <c r="C22" s="129">
+        <f>requi!J26</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="129">
+        <f>requi!I26</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="129">
+        <f>requi!C26</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="214">
+        <f>requi!D26</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="214"/>
+      <c r="H22" s="214"/>
+      <c r="I22" s="214"/>
+      <c r="J22" s="214"/>
+      <c r="K22" s="214"/>
       <c r="L22" s="80"/>
       <c r="M22" s="76"/>
       <c r="N22" s="81"/>
@@ -4143,15 +4146,27 @@
       <c r="B23" s="74">
         <v>8</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="252"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="254"/>
+      <c r="C23" s="129">
+        <f>requi!J27</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="129">
+        <f>requi!I27</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="129">
+        <f>requi!C27</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="214">
+        <f>requi!D27</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="214"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="214"/>
+      <c r="K23" s="214"/>
       <c r="L23" s="80"/>
       <c r="M23" s="76"/>
       <c r="N23" s="81"/>
@@ -4160,15 +4175,27 @@
       <c r="B24" s="74">
         <v>9</v>
       </c>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="252"/>
-      <c r="G24" s="253"/>
-      <c r="H24" s="253"/>
-      <c r="I24" s="253"/>
-      <c r="J24" s="253"/>
-      <c r="K24" s="254"/>
+      <c r="C24" s="129">
+        <f>requi!J28</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="129">
+        <f>requi!I28</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="129">
+        <f>requi!C28</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="214">
+        <f>requi!D28</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="214"/>
+      <c r="H24" s="214"/>
+      <c r="I24" s="214"/>
+      <c r="J24" s="214"/>
+      <c r="K24" s="214"/>
       <c r="L24" s="80"/>
       <c r="M24" s="76"/>
       <c r="N24" s="81"/>
@@ -4177,15 +4204,27 @@
       <c r="B25" s="74">
         <v>10</v>
       </c>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="252"/>
-      <c r="G25" s="253"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="253"/>
-      <c r="J25" s="253"/>
-      <c r="K25" s="254"/>
+      <c r="C25" s="129">
+        <f>requi!J29</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="129">
+        <f>requi!I29</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="129">
+        <f>requi!C29</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="214">
+        <f>requi!D29</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="214"/>
+      <c r="H25" s="214"/>
+      <c r="I25" s="214"/>
+      <c r="J25" s="214"/>
+      <c r="K25" s="214"/>
       <c r="L25" s="80"/>
       <c r="M25" s="76"/>
       <c r="N25" s="81"/>
@@ -4194,15 +4233,27 @@
       <c r="B26" s="74">
         <v>11</v>
       </c>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="252"/>
-      <c r="G26" s="253"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="253"/>
-      <c r="J26" s="253"/>
-      <c r="K26" s="254"/>
+      <c r="C26" s="129">
+        <f>requi!J30</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="129">
+        <f>requi!I30</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="129">
+        <f>requi!C30</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="214">
+        <f>requi!D30</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="214"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="214"/>
+      <c r="K26" s="214"/>
       <c r="L26" s="80"/>
       <c r="M26" s="76"/>
       <c r="N26" s="81"/>
@@ -4211,15 +4262,27 @@
       <c r="B27" s="74">
         <v>12</v>
       </c>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="252"/>
-      <c r="G27" s="253"/>
-      <c r="H27" s="253"/>
-      <c r="I27" s="253"/>
-      <c r="J27" s="253"/>
-      <c r="K27" s="254"/>
+      <c r="C27" s="129">
+        <f>requi!J31</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="129">
+        <f>requi!I31</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="129">
+        <f>requi!C31</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="214">
+        <f>requi!D31</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="214"/>
+      <c r="J27" s="214"/>
+      <c r="K27" s="214"/>
       <c r="L27" s="80"/>
       <c r="M27" s="76"/>
       <c r="N27" s="81"/>
@@ -4229,26 +4292,26 @@
         <v>13</v>
       </c>
       <c r="C28" s="129">
-        <f>requi!J33</f>
+        <f>requi!J32</f>
         <v>0</v>
       </c>
       <c r="D28" s="129">
-        <f>requi!I33</f>
+        <f>requi!I32</f>
         <v>0</v>
       </c>
       <c r="E28" s="129">
-        <f>requi!C33</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="200">
-        <f>requi!D33</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="200"/>
-      <c r="H28" s="200"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="200"/>
+        <f>requi!C32</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="214">
+        <f>requi!D32</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="214"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="214"/>
+      <c r="K28" s="214"/>
       <c r="L28" s="80"/>
       <c r="M28" s="76">
         <f t="shared" si="0"/>
@@ -4261,26 +4324,26 @@
         <v>14</v>
       </c>
       <c r="C29" s="129">
-        <f>requi!J34</f>
+        <f>requi!J33</f>
         <v>0</v>
       </c>
       <c r="D29" s="129">
-        <f>requi!I34</f>
+        <f>requi!I33</f>
         <v>0</v>
       </c>
       <c r="E29" s="129">
-        <f>requi!C34</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="200">
-        <f>requi!D34</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="200"/>
+        <f>requi!C33</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="214">
+        <f>requi!D33</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="214"/>
+      <c r="J29" s="214"/>
+      <c r="K29" s="214"/>
       <c r="L29" s="80"/>
       <c r="M29" s="76">
         <f t="shared" si="0"/>
@@ -4293,23 +4356,26 @@
         <v>15</v>
       </c>
       <c r="C30" s="129">
-        <f>requi!J36</f>
+        <f>requi!J34</f>
         <v>0</v>
       </c>
       <c r="D30" s="129">
-        <f>requi!I36</f>
+        <f>requi!I34</f>
         <v>0</v>
       </c>
       <c r="E30" s="129">
-        <f>requi!C36</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="200"/>
-      <c r="G30" s="200"/>
-      <c r="H30" s="200"/>
-      <c r="I30" s="200"/>
-      <c r="J30" s="200"/>
-      <c r="K30" s="200"/>
+        <f>requi!C34</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="214">
+        <f>requi!D34</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="214"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="214"/>
+      <c r="J30" s="214"/>
+      <c r="K30" s="214"/>
       <c r="L30" s="80"/>
       <c r="M30" s="76">
         <f t="shared" si="0"/>
@@ -4324,12 +4390,12 @@
       <c r="C31" s="78"/>
       <c r="D31" s="82"/>
       <c r="E31" s="83"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="175"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="221"/>
+      <c r="K31" s="222"/>
       <c r="L31" s="80"/>
       <c r="M31" s="76">
         <f t="shared" si="0"/>
@@ -4387,10 +4453,10 @@
       <c r="G34" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="198"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="198"/>
-      <c r="K34" s="199"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="235"/>
+      <c r="K34" s="236"/>
       <c r="L34" s="80"/>
       <c r="M34" s="76"/>
       <c r="N34" s="81"/>
@@ -4406,13 +4472,13 @@
       <c r="G35" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="198">
+      <c r="H35" s="235">
         <f>requi!M23</f>
         <v>0</v>
       </c>
-      <c r="I35" s="198"/>
-      <c r="J35" s="198"/>
-      <c r="K35" s="199"/>
+      <c r="I35" s="235"/>
+      <c r="J35" s="235"/>
+      <c r="K35" s="236"/>
       <c r="L35" s="80"/>
       <c r="M35" s="76"/>
       <c r="N35" s="81"/>
@@ -4428,13 +4494,13 @@
       <c r="G36" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="198">
+      <c r="H36" s="235">
         <f>requi!M24</f>
         <v>0</v>
       </c>
-      <c r="I36" s="198"/>
-      <c r="J36" s="198"/>
-      <c r="K36" s="199"/>
+      <c r="I36" s="235"/>
+      <c r="J36" s="235"/>
+      <c r="K36" s="236"/>
       <c r="L36" s="80"/>
       <c r="M36" s="76"/>
       <c r="N36" s="81"/>
@@ -4450,13 +4516,13 @@
       <c r="G37" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="198">
+      <c r="H37" s="235">
         <f>requi!M25</f>
         <v>0</v>
       </c>
-      <c r="I37" s="198"/>
-      <c r="J37" s="198"/>
-      <c r="K37" s="199"/>
+      <c r="I37" s="235"/>
+      <c r="J37" s="235"/>
+      <c r="K37" s="236"/>
       <c r="L37" s="80"/>
       <c r="M37" s="76"/>
       <c r="N37" s="81"/>
@@ -4472,13 +4538,13 @@
       <c r="G38" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="198">
+      <c r="H38" s="235">
         <f>requi!M22</f>
         <v>0</v>
       </c>
-      <c r="I38" s="198"/>
-      <c r="J38" s="198"/>
-      <c r="K38" s="199"/>
+      <c r="I38" s="235"/>
+      <c r="J38" s="235"/>
+      <c r="K38" s="236"/>
       <c r="L38" s="80"/>
       <c r="M38" s="76"/>
       <c r="N38" s="81"/>
@@ -4498,31 +4564,31 @@
       <c r="G39" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="198">
+      <c r="H39" s="235">
         <f>requi!M21</f>
         <v>0</v>
       </c>
-      <c r="I39" s="198"/>
-      <c r="J39" s="198"/>
-      <c r="K39" s="199"/>
+      <c r="I39" s="235"/>
+      <c r="J39" s="235"/>
+      <c r="K39" s="236"/>
       <c r="L39" s="80"/>
       <c r="M39" s="76"/>
       <c r="N39" s="81"/>
     </row>
     <row r="40" spans="2:14" ht="10.9" customHeight="1">
-      <c r="B40" s="186" t="e">
+      <c r="B40" s="223" t="e">
         <f ca="1">PesosMN(M48)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C40" s="187"/>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="187"/>
-      <c r="K40" s="188"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="224"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="224"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="225"/>
       <c r="L40" s="80"/>
       <c r="M40" s="99" t="s">
         <v>29</v>
@@ -4530,18 +4596,18 @@
       <c r="N40" s="100"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="189" t="str">
+      <c r="B41" s="226" t="str">
         <f>C6</f>
         <v>TRITURADOS BASÁLTICOS TEPETLAOXTOC</v>
       </c>
-      <c r="C41" s="190"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="191"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="227"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="227"/>
+      <c r="G41" s="227"/>
+      <c r="H41" s="227"/>
+      <c r="I41" s="227"/>
+      <c r="J41" s="228"/>
       <c r="K41" s="86"/>
       <c r="L41" s="80" t="s">
         <v>29</v>
@@ -4552,21 +4618,21 @@
       <c r="N41" s="100"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="192" t="s">
+      <c r="B42" s="229" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="193"/>
-      <c r="D42" s="193"/>
-      <c r="E42" s="194" t="s">
+      <c r="C42" s="230"/>
+      <c r="D42" s="230"/>
+      <c r="E42" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="195"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="193" t="s">
+      <c r="F42" s="232"/>
+      <c r="G42" s="233"/>
+      <c r="H42" s="230" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="193"/>
-      <c r="J42" s="197"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="234"/>
       <c r="K42" s="86"/>
       <c r="L42" s="80" t="s">
         <v>29</v>
@@ -4592,21 +4658,21 @@
       <c r="N43" s="109"/>
     </row>
     <row r="44" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B44" s="184" t="s">
+      <c r="B44" s="251" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="171"/>
-      <c r="D44" s="171"/>
-      <c r="E44" s="170" t="s">
+      <c r="C44" s="240"/>
+      <c r="D44" s="240"/>
+      <c r="E44" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="171"/>
-      <c r="G44" s="172"/>
-      <c r="H44" s="171" t="s">
+      <c r="F44" s="240"/>
+      <c r="G44" s="241"/>
+      <c r="H44" s="240" t="s">
         <v>71</v>
       </c>
-      <c r="I44" s="171"/>
-      <c r="J44" s="172"/>
+      <c r="I44" s="240"/>
+      <c r="J44" s="241"/>
       <c r="K44" s="110"/>
       <c r="L44" s="111" t="s">
         <v>72</v>
@@ -4618,17 +4684,17 @@
       <c r="N44" s="113"/>
     </row>
     <row r="45" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B45" s="173" t="s">
+      <c r="B45" s="242" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="174"/>
-      <c r="D45" s="174"/>
-      <c r="E45" s="174"/>
-      <c r="F45" s="174"/>
-      <c r="G45" s="174"/>
-      <c r="H45" s="174"/>
-      <c r="I45" s="174"/>
-      <c r="J45" s="175"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="221"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="221"/>
+      <c r="H45" s="221"/>
+      <c r="I45" s="221"/>
+      <c r="J45" s="222"/>
       <c r="K45" s="114"/>
       <c r="L45" s="115" t="s">
         <v>74</v>
@@ -4660,12 +4726,12 @@
         <v>76</v>
       </c>
       <c r="G47" s="124"/>
-      <c r="H47" s="176">
+      <c r="H47" s="243">
         <f>+G7</f>
         <v>0</v>
       </c>
-      <c r="I47" s="176"/>
-      <c r="J47" s="177"/>
+      <c r="I47" s="243"/>
+      <c r="J47" s="244"/>
       <c r="K47" s="114"/>
       <c r="L47" s="115" t="s">
         <v>77</v>
@@ -4674,21 +4740,21 @@
       <c r="N47" s="113"/>
     </row>
     <row r="48" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B48" s="178" t="s">
+      <c r="B48" s="245" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="179"/>
-      <c r="D48" s="179"/>
-      <c r="E48" s="180" t="s">
+      <c r="C48" s="246"/>
+      <c r="D48" s="246"/>
+      <c r="E48" s="247" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="181"/>
-      <c r="G48" s="182"/>
-      <c r="H48" s="179" t="s">
+      <c r="F48" s="248"/>
+      <c r="G48" s="249"/>
+      <c r="H48" s="246" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="179"/>
-      <c r="J48" s="183"/>
+      <c r="I48" s="246"/>
+      <c r="J48" s="250"/>
       <c r="K48" s="125" t="s">
         <v>29</v>
       </c>
@@ -4702,18 +4768,18 @@
       <c r="N48" s="113"/>
     </row>
     <row r="49" spans="2:14" ht="13.5" thickTop="1">
-      <c r="B49" s="168"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="168"/>
-      <c r="I49" s="168"/>
-      <c r="J49" s="168"/>
-      <c r="K49" s="168"/>
-      <c r="L49" s="168"/>
-      <c r="M49" s="169"/>
+      <c r="B49" s="237"/>
+      <c r="C49" s="237"/>
+      <c r="D49" s="237"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="237"/>
+      <c r="G49" s="237"/>
+      <c r="H49" s="237"/>
+      <c r="I49" s="237"/>
+      <c r="J49" s="237"/>
+      <c r="K49" s="237"/>
+      <c r="L49" s="237"/>
+      <c r="M49" s="238"/>
       <c r="N49" s="128"/>
     </row>
     <row r="50" spans="2:14">
@@ -4877,31 +4943,27 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
     <mergeCell ref="F30:K30"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F15:K15"/>
@@ -4917,27 +4979,31 @@
     <mergeCell ref="F23:K23"/>
     <mergeCell ref="F24:K24"/>
     <mergeCell ref="F25:K25"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="B49:M49"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/ExcelsStorageRequis/plantillas/maquinaria/NoFactura.xlsx
+++ b/src/ExcelsStorageRequis/plantillas/maquinaria/NoFactura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\src\ExcelsStorageRequis\plantillas\maquinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92930169-2A4D-4E10-9789-1E6A91F37882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DDDB37-B53D-4728-91F4-A4E10B8B3335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
   </bookViews>
   <sheets>
     <sheet name="requi" sheetId="1" r:id="rId1"/>
@@ -1823,6 +1823,105 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1838,104 +1937,200 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1952,87 +2147,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2055,120 +2169,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="77" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="78" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2813,8 +2813,8 @@
   </sheetPr>
   <dimension ref="B2:U45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2841,70 +2841,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" customHeight="1">
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
       <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="35.25" customHeight="1">
-      <c r="F3" s="137" t="s">
+      <c r="F3" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
     <row r="5" spans="2:15" ht="15.75">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="139" t="s">
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="140"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="173"/>
       <c r="O5" s="29"/>
     </row>
     <row r="6" spans="2:15" ht="15.75">
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
       <c r="H7" s="27" t="s">
         <v>38</v>
       </c>
@@ -2912,17 +2912,17 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="143" t="s">
+      <c r="M7" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
     </row>
     <row r="8" spans="2:15" ht="12.75" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
       <c r="H8" s="22"/>
       <c r="I8" s="21" t="s">
         <v>36</v>
@@ -2932,10 +2932,10 @@
       <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
       <c r="H9" s="22"/>
       <c r="I9" s="21" t="s">
         <v>34</v>
@@ -2960,10 +2960,10 @@
       <c r="B11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2995,52 +2995,52 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="163" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="148" t="s">
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="146" t="s">
+      <c r="J17" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="146" t="s">
+      <c r="K17" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="148" t="s">
+      <c r="L17" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="149"/>
-      <c r="N17" s="149"/>
-      <c r="O17" s="150"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="149"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="147"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="151"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="153"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="150"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="152"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="18"/>
@@ -3063,23 +3063,23 @@
         <v>1</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="156"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="155"/>
       <c r="I20" s="17"/>
       <c r="J20" s="34"/>
       <c r="K20" s="16"/>
       <c r="L20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="162"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="158"/>
       <c r="R20" s="1"/>
-      <c r="T20" s="157"/>
-      <c r="U20" s="157"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="156"/>
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="12">
@@ -3087,24 +3087,24 @@
         <v>2</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="160"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="140"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="164"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="160"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="157"/>
-      <c r="U21" s="157"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
     </row>
     <row r="22" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="12">
@@ -3112,25 +3112,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="160"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="140"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="159"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="157"/>
-      <c r="U22" s="157"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="12">
@@ -3138,24 +3138,24 @@
         <v>4</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="160"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="164"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="160"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="157"/>
-      <c r="U23" s="157"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="12">
@@ -3163,24 +3163,24 @@
         <v>5</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="160"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="140"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="164"/>
+      <c r="M24" s="159"/>
+      <c r="N24" s="159"/>
+      <c r="O24" s="160"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="157"/>
-      <c r="U24" s="157"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="12">
@@ -3188,24 +3188,24 @@
         <v>6</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="160"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="140"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="165"/>
-      <c r="N25" s="165"/>
-      <c r="O25" s="166"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="162"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="157"/>
-      <c r="U25" s="157"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="12">
@@ -3259,11 +3259,11 @@
         <v>9</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="173"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="146"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -3282,11 +3282,11 @@
         <v>10</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="173"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="146"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -3305,11 +3305,11 @@
         <v>11</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="173"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="146"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3328,11 +3328,11 @@
         <v>12</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="173"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="146"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -3351,11 +3351,11 @@
         <v>13</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="173"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="146"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -3374,11 +3374,11 @@
         <v>14</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="173"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="146"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -3393,11 +3393,11 @@
         <v>15</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="160"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="140"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -3412,11 +3412,11 @@
         <v>16</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="160"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="140"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
@@ -3445,11 +3445,11 @@
         <v>18</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="160"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="140"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
@@ -3464,13 +3464,13 @@
         <v>19</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="168" t="s">
+      <c r="D38" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="170"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="143"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -3501,10 +3501,10 @@
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="2:20" s="1" customFormat="1">
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="167"/>
+      <c r="C40" s="137"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
         <v>8</v>
@@ -3520,10 +3520,10 @@
       </c>
     </row>
     <row r="43" spans="2:20" s="1" customFormat="1">
-      <c r="B43" s="144" t="s">
+      <c r="B43" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="167"/>
+      <c r="C43" s="137"/>
       <c r="F43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3538,10 +3538,10 @@
       </c>
     </row>
     <row r="44" spans="2:20" s="1" customFormat="1">
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="144"/>
+      <c r="C44" s="136"/>
       <c r="F44" s="1" t="s">
         <v>2</v>
       </c>
@@ -3553,23 +3553,51 @@
       </c>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="144"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="144"/>
-      <c r="K45" s="144"/>
-      <c r="L45" s="144"/>
-      <c r="M45" s="144"/>
-      <c r="N45" s="144"/>
-      <c r="O45" s="144"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="136"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:O18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="T20:U25"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B45:O45"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B43:C43"/>
@@ -3585,34 +3613,6 @@
     <mergeCell ref="D31:H31"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="D33:H33"/>
-    <mergeCell ref="L17:O18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="T20:U25"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -3627,8 +3627,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:N102"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3668,19 +3668,19 @@
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="175" t="s">
+      <c r="F3" s="239"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="176"/>
+      <c r="M3" s="241"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14">
@@ -3706,95 +3706,95 @@
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="177" t="s">
+      <c r="L5" s="242" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="178"/>
+      <c r="M5" s="243"/>
       <c r="N5" s="54"/>
     </row>
     <row r="6" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B6" s="179" t="s">
+      <c r="B6" s="224" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="185" t="s">
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="229" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="188">
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="231"/>
+      <c r="L6" s="232">
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="M6" s="189"/>
+      <c r="M6" s="233"/>
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="180"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="190">
+      <c r="B7" s="213"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="234">
         <f>requi!K20</f>
         <v>0</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="193" t="s">
+      <c r="H7" s="235"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="235"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="194"/>
+      <c r="M7" s="238"/>
       <c r="N7" s="46"/>
     </row>
     <row r="8" spans="2:14" ht="12.95" customHeight="1">
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="212" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="200" t="s">
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="202">
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="215"/>
+      <c r="L8" s="220">
         <f>requi!C11</f>
         <v>0</v>
       </c>
-      <c r="M8" s="203"/>
+      <c r="M8" s="221"/>
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="180"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="201"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="199"/>
-      <c r="L9" s="204" t="s">
+      <c r="B9" s="213"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="205"/>
+      <c r="M9" s="223"/>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14">
@@ -3810,64 +3810,64 @@
       <c r="G10" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="206">
+      <c r="H10" s="244">
         <f>requi!M20</f>
         <v>0</v>
       </c>
-      <c r="I10" s="206"/>
-      <c r="J10" s="206"/>
-      <c r="K10" s="207"/>
-      <c r="L10" s="208">
+      <c r="I10" s="244"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="245"/>
+      <c r="L10" s="246">
         <f>requi!O5</f>
         <v>0</v>
       </c>
-      <c r="M10" s="209"/>
+      <c r="M10" s="247"/>
       <c r="N10" s="61"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="210">
+      <c r="C11" s="248">
         <f>requi!C7</f>
         <v>0</v>
       </c>
-      <c r="D11" s="210"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="211"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="249"/>
       <c r="G11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="206" t="s">
+      <c r="H11" s="244" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="206"/>
-      <c r="J11" s="206"/>
-      <c r="K11" s="207"/>
-      <c r="L11" s="204" t="s">
+      <c r="I11" s="244"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="245"/>
+      <c r="L11" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="205"/>
+      <c r="M11" s="223"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="211"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="249"/>
       <c r="G12" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="206" t="s">
+      <c r="H12" s="244" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="206"/>
-      <c r="J12" s="206"/>
-      <c r="K12" s="207"/>
-      <c r="L12" s="212"/>
-      <c r="M12" s="213"/>
+      <c r="I12" s="244"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="245"/>
+      <c r="L12" s="250"/>
+      <c r="M12" s="251"/>
     </row>
     <row r="13" spans="2:14" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="B13" s="62"/>
@@ -3878,13 +3878,13 @@
       <c r="G13" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="215">
+      <c r="H13" s="207">
         <f>H34</f>
         <v>0</v>
       </c>
-      <c r="I13" s="215"/>
-      <c r="J13" s="215"/>
-      <c r="K13" s="216"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="207"/>
+      <c r="K13" s="208"/>
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
       <c r="N13" s="46"/>
@@ -3905,14 +3905,14 @@
       <c r="E15" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="217" t="s">
+      <c r="F15" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="218"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="219"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="210"/>
+      <c r="K15" s="211"/>
       <c r="L15" s="70" t="s">
         <v>63</v>
       </c>
@@ -3937,15 +3937,15 @@
         <f>requi!C20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="214">
+      <c r="F16" s="206">
         <f>requi!D20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="214"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="214"/>
-      <c r="K16" s="214"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="206"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76">
         <f t="shared" ref="M16:M32" si="0">L16*C16</f>
@@ -3969,15 +3969,15 @@
         <f>requi!C21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="214">
+      <c r="F17" s="206">
         <f>requi!D21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
-      <c r="I17" s="214"/>
-      <c r="J17" s="214"/>
-      <c r="K17" s="214"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="206"/>
       <c r="L17" s="80"/>
       <c r="M17" s="76">
         <f t="shared" si="0"/>
@@ -4001,15 +4001,15 @@
         <f>requi!C22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="214">
+      <c r="F18" s="206">
         <f>requi!D22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="214"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="206"/>
       <c r="L18" s="80"/>
       <c r="M18" s="76">
         <f t="shared" si="0"/>
@@ -4033,15 +4033,15 @@
         <f>requi!C23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="214">
+      <c r="F19" s="206">
         <f>requi!D23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="214"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="214"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
       <c r="L19" s="80"/>
       <c r="M19" s="76">
         <f t="shared" si="0"/>
@@ -4065,15 +4065,15 @@
         <f>requi!C24</f>
         <v>0</v>
       </c>
-      <c r="F20" s="214">
+      <c r="F20" s="206">
         <f>requi!D24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="214"/>
-      <c r="H20" s="214"/>
-      <c r="I20" s="214"/>
-      <c r="J20" s="214"/>
-      <c r="K20" s="214"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="206"/>
       <c r="L20" s="80"/>
       <c r="M20" s="76">
         <f t="shared" si="0"/>
@@ -4097,15 +4097,15 @@
         <f>requi!C25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="214">
+      <c r="F21" s="206">
         <f>requi!D25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="214"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="214"/>
-      <c r="K21" s="214"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="206"/>
       <c r="L21" s="80"/>
       <c r="M21" s="76">
         <f t="shared" si="0"/>
@@ -4129,17 +4129,20 @@
         <f>requi!C26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="214">
+      <c r="F22" s="206">
         <f>requi!D26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="214"/>
-      <c r="H22" s="214"/>
-      <c r="I22" s="214"/>
-      <c r="J22" s="214"/>
-      <c r="K22" s="214"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="206"/>
+      <c r="K22" s="206"/>
       <c r="L22" s="80"/>
-      <c r="M22" s="76"/>
+      <c r="M22" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N22" s="81"/>
     </row>
     <row r="23" spans="2:14">
@@ -4158,17 +4161,20 @@
         <f>requi!C27</f>
         <v>0</v>
       </c>
-      <c r="F23" s="214">
+      <c r="F23" s="206">
         <f>requi!D27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="214"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="214"/>
-      <c r="J23" s="214"/>
-      <c r="K23" s="214"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="206"/>
+      <c r="K23" s="206"/>
       <c r="L23" s="80"/>
-      <c r="M23" s="76"/>
+      <c r="M23" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N23" s="81"/>
     </row>
     <row r="24" spans="2:14">
@@ -4187,17 +4193,20 @@
         <f>requi!C28</f>
         <v>0</v>
       </c>
-      <c r="F24" s="214">
+      <c r="F24" s="206">
         <f>requi!D28</f>
         <v>0</v>
       </c>
-      <c r="G24" s="214"/>
-      <c r="H24" s="214"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="214"/>
-      <c r="K24" s="214"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="206"/>
       <c r="L24" s="80"/>
-      <c r="M24" s="76"/>
+      <c r="M24" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N24" s="81"/>
     </row>
     <row r="25" spans="2:14">
@@ -4216,17 +4225,20 @@
         <f>requi!C29</f>
         <v>0</v>
       </c>
-      <c r="F25" s="214">
+      <c r="F25" s="206">
         <f>requi!D29</f>
         <v>0</v>
       </c>
-      <c r="G25" s="214"/>
-      <c r="H25" s="214"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="214"/>
-      <c r="K25" s="214"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="206"/>
       <c r="L25" s="80"/>
-      <c r="M25" s="76"/>
+      <c r="M25" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N25" s="81"/>
     </row>
     <row r="26" spans="2:14">
@@ -4245,17 +4257,20 @@
         <f>requi!C30</f>
         <v>0</v>
       </c>
-      <c r="F26" s="214">
+      <c r="F26" s="206">
         <f>requi!D30</f>
         <v>0</v>
       </c>
-      <c r="G26" s="214"/>
-      <c r="H26" s="214"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="214"/>
-      <c r="K26" s="214"/>
+      <c r="G26" s="206"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="206"/>
       <c r="L26" s="80"/>
-      <c r="M26" s="76"/>
+      <c r="M26" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N26" s="81"/>
     </row>
     <row r="27" spans="2:14">
@@ -4274,17 +4289,20 @@
         <f>requi!C31</f>
         <v>0</v>
       </c>
-      <c r="F27" s="214">
+      <c r="F27" s="206">
         <f>requi!D31</f>
         <v>0</v>
       </c>
-      <c r="G27" s="214"/>
-      <c r="H27" s="214"/>
-      <c r="I27" s="214"/>
-      <c r="J27" s="214"/>
-      <c r="K27" s="214"/>
+      <c r="G27" s="206"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="206"/>
+      <c r="K27" s="206"/>
       <c r="L27" s="80"/>
-      <c r="M27" s="76"/>
+      <c r="M27" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="N27" s="81"/>
     </row>
     <row r="28" spans="2:14">
@@ -4303,15 +4321,15 @@
         <f>requi!C32</f>
         <v>0</v>
       </c>
-      <c r="F28" s="214">
+      <c r="F28" s="206">
         <f>requi!D32</f>
         <v>0</v>
       </c>
-      <c r="G28" s="214"/>
-      <c r="H28" s="214"/>
-      <c r="I28" s="214"/>
-      <c r="J28" s="214"/>
-      <c r="K28" s="214"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="206"/>
       <c r="L28" s="80"/>
       <c r="M28" s="76">
         <f t="shared" si="0"/>
@@ -4335,15 +4353,15 @@
         <f>requi!C33</f>
         <v>0</v>
       </c>
-      <c r="F29" s="214">
+      <c r="F29" s="206">
         <f>requi!D33</f>
         <v>0</v>
       </c>
-      <c r="G29" s="214"/>
-      <c r="H29" s="214"/>
-      <c r="I29" s="214"/>
-      <c r="J29" s="214"/>
-      <c r="K29" s="214"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="206"/>
+      <c r="K29" s="206"/>
       <c r="L29" s="80"/>
       <c r="M29" s="76">
         <f t="shared" si="0"/>
@@ -4367,15 +4385,15 @@
         <f>requi!C34</f>
         <v>0</v>
       </c>
-      <c r="F30" s="214">
+      <c r="F30" s="206">
         <f>requi!D34</f>
         <v>0</v>
       </c>
-      <c r="G30" s="214"/>
-      <c r="H30" s="214"/>
-      <c r="I30" s="214"/>
-      <c r="J30" s="214"/>
-      <c r="K30" s="214"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="206"/>
       <c r="L30" s="80"/>
       <c r="M30" s="76">
         <f t="shared" si="0"/>
@@ -4390,17 +4408,14 @@
       <c r="C31" s="78"/>
       <c r="D31" s="82"/>
       <c r="E31" s="83"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="221"/>
-      <c r="H31" s="221"/>
-      <c r="I31" s="221"/>
-      <c r="J31" s="221"/>
-      <c r="K31" s="222"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="180"/>
+      <c r="K31" s="181"/>
       <c r="L31" s="80"/>
-      <c r="M31" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M31" s="76"/>
       <c r="N31" s="81"/>
     </row>
     <row r="32" spans="2:14">
@@ -4417,10 +4432,7 @@
       <c r="J32" s="85"/>
       <c r="K32" s="86"/>
       <c r="L32" s="80"/>
-      <c r="M32" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M32" s="76"/>
       <c r="N32" s="81"/>
     </row>
     <row r="33" spans="2:14">
@@ -4453,10 +4465,10 @@
       <c r="G34" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="235"/>
-      <c r="I34" s="235"/>
-      <c r="J34" s="235"/>
-      <c r="K34" s="236"/>
+      <c r="H34" s="204"/>
+      <c r="I34" s="204"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="205"/>
       <c r="L34" s="80"/>
       <c r="M34" s="76"/>
       <c r="N34" s="81"/>
@@ -4472,13 +4484,13 @@
       <c r="G35" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="235">
+      <c r="H35" s="204">
         <f>requi!M23</f>
         <v>0</v>
       </c>
-      <c r="I35" s="235"/>
-      <c r="J35" s="235"/>
-      <c r="K35" s="236"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="205"/>
       <c r="L35" s="80"/>
       <c r="M35" s="76"/>
       <c r="N35" s="81"/>
@@ -4494,13 +4506,13 @@
       <c r="G36" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="235">
+      <c r="H36" s="204">
         <f>requi!M24</f>
         <v>0</v>
       </c>
-      <c r="I36" s="235"/>
-      <c r="J36" s="235"/>
-      <c r="K36" s="236"/>
+      <c r="I36" s="204"/>
+      <c r="J36" s="204"/>
+      <c r="K36" s="205"/>
       <c r="L36" s="80"/>
       <c r="M36" s="76"/>
       <c r="N36" s="81"/>
@@ -4516,13 +4528,13 @@
       <c r="G37" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="235">
+      <c r="H37" s="204">
         <f>requi!M25</f>
         <v>0</v>
       </c>
-      <c r="I37" s="235"/>
-      <c r="J37" s="235"/>
-      <c r="K37" s="236"/>
+      <c r="I37" s="204"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="205"/>
       <c r="L37" s="80"/>
       <c r="M37" s="76"/>
       <c r="N37" s="81"/>
@@ -4538,13 +4550,13 @@
       <c r="G38" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="235">
+      <c r="H38" s="204">
         <f>requi!M22</f>
         <v>0</v>
       </c>
-      <c r="I38" s="235"/>
-      <c r="J38" s="235"/>
-      <c r="K38" s="236"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="204"/>
+      <c r="K38" s="205"/>
       <c r="L38" s="80"/>
       <c r="M38" s="76"/>
       <c r="N38" s="81"/>
@@ -4564,31 +4576,31 @@
       <c r="G39" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="235">
+      <c r="H39" s="204">
         <f>requi!M21</f>
         <v>0</v>
       </c>
-      <c r="I39" s="235"/>
-      <c r="J39" s="235"/>
-      <c r="K39" s="236"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="205"/>
       <c r="L39" s="80"/>
       <c r="M39" s="76"/>
       <c r="N39" s="81"/>
     </row>
     <row r="40" spans="2:14" ht="10.9" customHeight="1">
-      <c r="B40" s="223" t="e">
+      <c r="B40" s="192" t="e">
         <f ca="1">PesosMN(M48)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C40" s="224"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="224"/>
-      <c r="F40" s="224"/>
-      <c r="G40" s="224"/>
-      <c r="H40" s="224"/>
-      <c r="I40" s="224"/>
-      <c r="J40" s="224"/>
-      <c r="K40" s="225"/>
+      <c r="C40" s="193"/>
+      <c r="D40" s="193"/>
+      <c r="E40" s="193"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="193"/>
+      <c r="H40" s="193"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="193"/>
+      <c r="K40" s="194"/>
       <c r="L40" s="80"/>
       <c r="M40" s="99" t="s">
         <v>29</v>
@@ -4596,18 +4608,18 @@
       <c r="N40" s="100"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="226" t="str">
+      <c r="B41" s="195" t="str">
         <f>C6</f>
         <v>TRITURADOS BASÁLTICOS TEPETLAOXTOC</v>
       </c>
-      <c r="C41" s="227"/>
-      <c r="D41" s="227"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="227"/>
-      <c r="G41" s="227"/>
-      <c r="H41" s="227"/>
-      <c r="I41" s="227"/>
-      <c r="J41" s="228"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="197"/>
       <c r="K41" s="86"/>
       <c r="L41" s="80" t="s">
         <v>29</v>
@@ -4618,21 +4630,21 @@
       <c r="N41" s="100"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="229" t="s">
+      <c r="B42" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="230"/>
-      <c r="D42" s="230"/>
-      <c r="E42" s="231" t="s">
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="200" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="232"/>
-      <c r="G42" s="233"/>
-      <c r="H42" s="230" t="s">
+      <c r="F42" s="201"/>
+      <c r="G42" s="202"/>
+      <c r="H42" s="199" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="230"/>
-      <c r="J42" s="234"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="203"/>
       <c r="K42" s="86"/>
       <c r="L42" s="80" t="s">
         <v>29</v>
@@ -4658,43 +4670,43 @@
       <c r="N43" s="109"/>
     </row>
     <row r="44" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B44" s="251" t="s">
+      <c r="B44" s="190" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="240"/>
-      <c r="D44" s="240"/>
-      <c r="E44" s="239" t="s">
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="176" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="240"/>
-      <c r="G44" s="241"/>
-      <c r="H44" s="240" t="s">
+      <c r="F44" s="177"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="I44" s="240"/>
-      <c r="J44" s="241"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="178"/>
       <c r="K44" s="110"/>
       <c r="L44" s="111" t="s">
         <v>72</v>
       </c>
       <c r="M44" s="112">
-        <f>SUM(M16:M40)</f>
+        <f>SUM(M16:M30)</f>
         <v>0</v>
       </c>
       <c r="N44" s="113"/>
     </row>
     <row r="45" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B45" s="242" t="s">
+      <c r="B45" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="221"/>
-      <c r="D45" s="221"/>
-      <c r="E45" s="221"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="221"/>
-      <c r="H45" s="221"/>
-      <c r="I45" s="221"/>
-      <c r="J45" s="222"/>
+      <c r="C45" s="180"/>
+      <c r="D45" s="180"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="180"/>
+      <c r="G45" s="180"/>
+      <c r="H45" s="180"/>
+      <c r="I45" s="180"/>
+      <c r="J45" s="181"/>
       <c r="K45" s="114"/>
       <c r="L45" s="115" t="s">
         <v>74</v>
@@ -4726,12 +4738,12 @@
         <v>76</v>
       </c>
       <c r="G47" s="124"/>
-      <c r="H47" s="243">
+      <c r="H47" s="182">
         <f>+G7</f>
         <v>0</v>
       </c>
-      <c r="I47" s="243"/>
-      <c r="J47" s="244"/>
+      <c r="I47" s="182"/>
+      <c r="J47" s="183"/>
       <c r="K47" s="114"/>
       <c r="L47" s="115" t="s">
         <v>77</v>
@@ -4740,21 +4752,21 @@
       <c r="N47" s="113"/>
     </row>
     <row r="48" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B48" s="245" t="s">
+      <c r="B48" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="246"/>
-      <c r="D48" s="246"/>
-      <c r="E48" s="247" t="s">
+      <c r="C48" s="185"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="248"/>
-      <c r="G48" s="249"/>
-      <c r="H48" s="246" t="s">
+      <c r="F48" s="187"/>
+      <c r="G48" s="188"/>
+      <c r="H48" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="246"/>
-      <c r="J48" s="250"/>
+      <c r="I48" s="185"/>
+      <c r="J48" s="189"/>
       <c r="K48" s="125" t="s">
         <v>29</v>
       </c>
@@ -4768,18 +4780,18 @@
       <c r="N48" s="113"/>
     </row>
     <row r="49" spans="2:14" ht="13.5" thickTop="1">
-      <c r="B49" s="237"/>
-      <c r="C49" s="237"/>
-      <c r="D49" s="237"/>
-      <c r="E49" s="237"/>
-      <c r="F49" s="237"/>
-      <c r="G49" s="237"/>
-      <c r="H49" s="237"/>
-      <c r="I49" s="237"/>
-      <c r="J49" s="237"/>
-      <c r="K49" s="237"/>
-      <c r="L49" s="237"/>
-      <c r="M49" s="238"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="174"/>
+      <c r="E49" s="174"/>
+      <c r="F49" s="174"/>
+      <c r="G49" s="174"/>
+      <c r="H49" s="174"/>
+      <c r="I49" s="174"/>
+      <c r="J49" s="174"/>
+      <c r="K49" s="174"/>
+      <c r="L49" s="174"/>
+      <c r="M49" s="175"/>
       <c r="N49" s="128"/>
     </row>
     <row r="50" spans="2:14">
@@ -4943,27 +4955,30 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B49:M49"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="F30:K30"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F15:K15"/>
@@ -4979,31 +4994,28 @@
     <mergeCell ref="F23:K23"/>
     <mergeCell ref="F24:K24"/>
     <mergeCell ref="F25:K25"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:M7"/>
     <mergeCell ref="F26:K26"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/ExcelsStorageRequis/plantillas/maquinaria/NoFactura.xlsx
+++ b/src/ExcelsStorageRequis/plantillas/maquinaria/NoFactura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBT\Documents\TBTapp\tbt-app\src\ExcelsStorageRequis\plantillas\maquinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DDDB37-B53D-4728-91F4-A4E10B8B3335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ABB236-DD55-40C2-B766-2B6EE8024C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{23728274-58D1-446B-AD76-22B014C06C12}"/>
   </bookViews>
   <sheets>
     <sheet name="requi" sheetId="1" r:id="rId1"/>
@@ -1823,21 +1823,102 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1856,86 +1937,194 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1953,12 +2142,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1986,189 +2169,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="71" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="67" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2813,98 +2813,98 @@
   </sheetPr>
   <dimension ref="B2:U45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="20" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" customWidth="1"/>
+    <col min="19" max="20" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" customHeight="1">
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
       <c r="O2" s="30"/>
     </row>
     <row r="3" spans="2:15" ht="35.25" customHeight="1">
-      <c r="F3" s="170" t="s">
+      <c r="F3" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="7.5" customHeight="1"/>
-    <row r="5" spans="2:15" ht="15.75">
+    <row r="5" spans="2:15" ht="15.6">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="172" t="s">
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="173"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="140"/>
       <c r="O5" s="29"/>
     </row>
-    <row r="6" spans="2:15" ht="15.75">
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
+    <row r="6" spans="2:15" ht="15.6">
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
       <c r="H7" s="27" t="s">
         <v>38</v>
       </c>
@@ -2912,17 +2912,17 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="167" t="s">
+      <c r="M7" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
     </row>
     <row r="8" spans="2:15" ht="12.75" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
       <c r="H8" s="22"/>
       <c r="I8" s="21" t="s">
         <v>36</v>
@@ -2932,10 +2932,10 @@
       <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
       <c r="H9" s="22"/>
       <c r="I9" s="21" t="s">
         <v>34</v>
@@ -2960,10 +2960,10 @@
       <c r="B11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2995,52 +2995,52 @@
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="146" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="147" t="s">
+      <c r="D17" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="147" t="s">
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="163" t="s">
+      <c r="J17" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="163" t="s">
+      <c r="K17" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="147" t="s">
+      <c r="L17" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="148"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="149"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="150"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="164"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="152"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="153"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="18"/>
@@ -3063,23 +3063,23 @@
         <v>1</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="155"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="156"/>
       <c r="I20" s="17"/>
       <c r="J20" s="34"/>
       <c r="K20" s="16"/>
       <c r="L20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="158"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="162"/>
       <c r="R20" s="1"/>
-      <c r="T20" s="156"/>
-      <c r="U20" s="156"/>
+      <c r="T20" s="157"/>
+      <c r="U20" s="157"/>
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="12">
@@ -3087,24 +3087,24 @@
         <v>2</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="140"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="160"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="159"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="160"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="164"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
-      <c r="T21" s="156"/>
-      <c r="U21" s="156"/>
+      <c r="T21" s="157"/>
+      <c r="U21" s="157"/>
     </row>
     <row r="22" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="12">
@@ -3112,25 +3112,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="140"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="160"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="159"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="1"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
     </row>
     <row r="23" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="12">
@@ -3138,24 +3138,24 @@
         <v>4</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="140"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="160"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="159"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="160"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="164"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
+      <c r="T23" s="157"/>
+      <c r="U23" s="157"/>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="12">
@@ -3163,24 +3163,24 @@
         <v>5</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="140"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="160"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="160"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="164"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="1"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
+      <c r="T24" s="157"/>
+      <c r="U24" s="157"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="12">
@@ -3188,24 +3188,24 @@
         <v>6</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="140"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="160"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="162"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="165"/>
+      <c r="O25" s="166"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="1"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
+      <c r="T25" s="157"/>
+      <c r="U25" s="157"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="12">
@@ -3259,11 +3259,11 @@
         <v>9</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="146"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="173"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -3282,11 +3282,11 @@
         <v>10</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="146"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="173"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -3305,11 +3305,11 @@
         <v>11</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="146"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="173"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3328,11 +3328,11 @@
         <v>12</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="146"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="173"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -3351,11 +3351,11 @@
         <v>13</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="146"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="173"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -3374,11 +3374,11 @@
         <v>14</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="146"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="173"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -3393,11 +3393,11 @@
         <v>15</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="140"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="160"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -3412,11 +3412,11 @@
         <v>16</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="140"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="160"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
@@ -3445,11 +3445,11 @@
         <v>18</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="140"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="160"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
@@ -3464,13 +3464,13 @@
         <v>19</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="141" t="s">
+      <c r="D38" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="142"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="143"/>
+      <c r="E38" s="169"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="170"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -3501,10 +3501,10 @@
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="2:20" s="1" customFormat="1">
-      <c r="B40" s="137" t="s">
+      <c r="B40" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="137"/>
+      <c r="C40" s="167"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
         <v>8</v>
@@ -3520,10 +3520,10 @@
       </c>
     </row>
     <row r="43" spans="2:20" s="1" customFormat="1">
-      <c r="B43" s="136" t="s">
+      <c r="B43" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="137"/>
+      <c r="C43" s="167"/>
       <c r="F43" s="1" t="s">
         <v>5</v>
       </c>
@@ -3538,10 +3538,10 @@
       </c>
     </row>
     <row r="44" spans="2:20" s="1" customFormat="1">
-      <c r="B44" s="136" t="s">
+      <c r="B44" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="136"/>
+      <c r="C44" s="144"/>
       <c r="F44" s="1" t="s">
         <v>2</v>
       </c>
@@ -3553,51 +3553,23 @@
       </c>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="136"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
-      <c r="O45" s="136"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="144"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="144"/>
+      <c r="N45" s="144"/>
+      <c r="O45" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:O18"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="T20:U25"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
     <mergeCell ref="B45:O45"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B43:C43"/>
@@ -3613,6 +3585,34 @@
     <mergeCell ref="D31:H31"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="D33:H33"/>
+    <mergeCell ref="L17:O18"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="T20:U25"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -3627,29 +3627,29 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:N102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="15"/>
-    <col min="4" max="4" width="10.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="15"/>
+    <col min="4" max="4" width="10.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="15" customWidth="1"/>
     <col min="7" max="7" width="19" style="15" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="15"/>
-    <col min="10" max="10" width="12.85546875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="36" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="15" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="15"/>
+    <col min="8" max="9" width="11.44140625" style="15"/>
+    <col min="10" max="10" width="12.88671875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="36" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="13.5" thickBot="1"/>
+    <row r="1" spans="2:14" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:14" ht="6" customHeight="1" thickTop="1">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
@@ -3668,19 +3668,19 @@
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="239" t="s">
+      <c r="E3" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="239"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="240" t="s">
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="241"/>
+      <c r="M3" s="177"/>
       <c r="N3" s="44"/>
     </row>
     <row r="4" spans="2:14">
@@ -3706,95 +3706,95 @@
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="242" t="s">
+      <c r="L5" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="243"/>
+      <c r="M5" s="179"/>
       <c r="N5" s="54"/>
     </row>
-    <row r="6" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B6" s="224" t="s">
+    <row r="6" spans="2:14" ht="14.4" customHeight="1">
+      <c r="B6" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="225" t="s">
+      <c r="C6" s="192" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="229" t="s">
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="196" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="231"/>
-      <c r="L6" s="232">
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="198"/>
+      <c r="L6" s="199">
         <f>L10</f>
         <v>0</v>
       </c>
-      <c r="M6" s="233"/>
+      <c r="M6" s="200"/>
       <c r="N6" s="46"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="213"/>
-      <c r="C7" s="227"/>
-      <c r="D7" s="227"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="234">
+      <c r="B7" s="191"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="201">
         <f>requi!K20</f>
         <v>0</v>
       </c>
-      <c r="H7" s="235"/>
-      <c r="I7" s="235"/>
-      <c r="J7" s="235"/>
-      <c r="K7" s="236"/>
-      <c r="L7" s="237" t="s">
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
+      <c r="L7" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="238"/>
+      <c r="M7" s="205"/>
       <c r="N7" s="46"/>
     </row>
-    <row r="8" spans="2:14" ht="12.95" customHeight="1">
-      <c r="B8" s="212" t="s">
+    <row r="8" spans="2:14" ht="12.9" customHeight="1">
+      <c r="B8" s="206" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="214" t="s">
+      <c r="C8" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="218" t="s">
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="214"/>
-      <c r="I8" s="214"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="215"/>
-      <c r="L8" s="220">
+      <c r="H8" s="207"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="213">
         <f>requi!C11</f>
         <v>0</v>
       </c>
-      <c r="M8" s="221"/>
+      <c r="M8" s="214"/>
       <c r="N8" s="55"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="213"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="216"/>
-      <c r="J9" s="216"/>
-      <c r="K9" s="217"/>
-      <c r="L9" s="222" t="s">
+      <c r="B9" s="191"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="209"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="223"/>
+      <c r="M9" s="187"/>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14">
@@ -3810,66 +3810,66 @@
       <c r="G10" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="244">
+      <c r="H10" s="180">
         <f>requi!M20</f>
         <v>0</v>
       </c>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="245"/>
-      <c r="L10" s="246">
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="182">
         <f>requi!O5</f>
         <v>0</v>
       </c>
-      <c r="M10" s="247"/>
+      <c r="M10" s="183"/>
       <c r="N10" s="61"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="248">
+      <c r="C11" s="184">
         <f>requi!C7</f>
         <v>0</v>
       </c>
-      <c r="D11" s="248"/>
-      <c r="E11" s="248"/>
-      <c r="F11" s="249"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="185"/>
       <c r="G11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="244" t="s">
+      <c r="H11" s="180" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="245"/>
-      <c r="L11" s="222" t="s">
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="186" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="223"/>
+      <c r="M11" s="187"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="248"/>
-      <c r="D12" s="248"/>
-      <c r="E12" s="248"/>
-      <c r="F12" s="249"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="185"/>
       <c r="G12" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="244" t="s">
+      <c r="H12" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="245"/>
-      <c r="L12" s="250"/>
-      <c r="M12" s="251"/>
-    </row>
-    <row r="13" spans="2:14" ht="16.899999999999999" customHeight="1" thickBot="1">
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="189"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.95" customHeight="1" thickBot="1">
       <c r="B13" s="62"/>
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
@@ -3878,13 +3878,13 @@
       <c r="G13" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="207">
+      <c r="H13" s="215">
         <f>H34</f>
         <v>0</v>
       </c>
-      <c r="I13" s="207"/>
-      <c r="J13" s="207"/>
-      <c r="K13" s="208"/>
+      <c r="I13" s="215"/>
+      <c r="J13" s="215"/>
+      <c r="K13" s="216"/>
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
       <c r="N13" s="46"/>
@@ -3892,7 +3892,7 @@
     <row r="14" spans="2:14" ht="5.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="2:14" ht="13.5" thickBot="1">
+    <row r="15" spans="2:14" ht="13.8" thickBot="1">
       <c r="B15" s="69" t="s">
         <v>23</v>
       </c>
@@ -3905,14 +3905,14 @@
       <c r="E15" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="209" t="s">
+      <c r="F15" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="210"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="210"/>
-      <c r="K15" s="211"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="219"/>
       <c r="L15" s="70" t="s">
         <v>63</v>
       </c>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="N15" s="72"/>
     </row>
-    <row r="16" spans="2:14" s="73" customFormat="1" ht="14.45" customHeight="1">
+    <row r="16" spans="2:14" s="73" customFormat="1" ht="14.4" customHeight="1">
       <c r="B16" s="74">
         <v>1</v>
       </c>
@@ -3937,18 +3937,18 @@
         <f>requi!C20</f>
         <v>0</v>
       </c>
-      <c r="F16" s="206">
+      <c r="F16" s="174">
         <f>requi!D20</f>
         <v>0</v>
       </c>
-      <c r="G16" s="206"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="206"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76">
-        <f t="shared" ref="M16:M32" si="0">L16*C16</f>
+        <f t="shared" ref="M16:M30" si="0">L16*C16</f>
         <v>0</v>
       </c>
       <c r="N16" s="77"/>
@@ -3969,15 +3969,15 @@
         <f>requi!C21</f>
         <v>0</v>
       </c>
-      <c r="F17" s="206">
+      <c r="F17" s="174">
         <f>requi!D21</f>
         <v>0</v>
       </c>
-      <c r="G17" s="206"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="206"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
       <c r="L17" s="80"/>
       <c r="M17" s="76">
         <f t="shared" si="0"/>
@@ -4001,15 +4001,15 @@
         <f>requi!C22</f>
         <v>0</v>
       </c>
-      <c r="F18" s="206">
+      <c r="F18" s="174">
         <f>requi!D22</f>
         <v>0</v>
       </c>
-      <c r="G18" s="206"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="206"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
       <c r="L18" s="80"/>
       <c r="M18" s="76">
         <f t="shared" si="0"/>
@@ -4033,15 +4033,15 @@
         <f>requi!C23</f>
         <v>0</v>
       </c>
-      <c r="F19" s="206">
+      <c r="F19" s="174">
         <f>requi!D23</f>
         <v>0</v>
       </c>
-      <c r="G19" s="206"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="206"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174"/>
       <c r="L19" s="80"/>
       <c r="M19" s="76">
         <f t="shared" si="0"/>
@@ -4065,15 +4065,15 @@
         <f>requi!C24</f>
         <v>0</v>
       </c>
-      <c r="F20" s="206">
+      <c r="F20" s="174">
         <f>requi!D24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="206"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="206"/>
-      <c r="J20" s="206"/>
-      <c r="K20" s="206"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="174"/>
       <c r="L20" s="80"/>
       <c r="M20" s="76">
         <f t="shared" si="0"/>
@@ -4097,15 +4097,15 @@
         <f>requi!C25</f>
         <v>0</v>
       </c>
-      <c r="F21" s="206">
+      <c r="F21" s="174">
         <f>requi!D25</f>
         <v>0</v>
       </c>
-      <c r="G21" s="206"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="206"/>
-      <c r="J21" s="206"/>
-      <c r="K21" s="206"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="174"/>
       <c r="L21" s="80"/>
       <c r="M21" s="76">
         <f t="shared" si="0"/>
@@ -4129,15 +4129,15 @@
         <f>requi!C26</f>
         <v>0</v>
       </c>
-      <c r="F22" s="206">
+      <c r="F22" s="174">
         <f>requi!D26</f>
         <v>0</v>
       </c>
-      <c r="G22" s="206"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="206"/>
-      <c r="J22" s="206"/>
-      <c r="K22" s="206"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="174"/>
       <c r="L22" s="80"/>
       <c r="M22" s="76">
         <f t="shared" si="0"/>
@@ -4161,15 +4161,15 @@
         <f>requi!C27</f>
         <v>0</v>
       </c>
-      <c r="F23" s="206">
+      <c r="F23" s="174">
         <f>requi!D27</f>
         <v>0</v>
       </c>
-      <c r="G23" s="206"/>
-      <c r="H23" s="206"/>
-      <c r="I23" s="206"/>
-      <c r="J23" s="206"/>
-      <c r="K23" s="206"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="174"/>
       <c r="L23" s="80"/>
       <c r="M23" s="76">
         <f t="shared" si="0"/>
@@ -4193,15 +4193,15 @@
         <f>requi!C28</f>
         <v>0</v>
       </c>
-      <c r="F24" s="206">
+      <c r="F24" s="174">
         <f>requi!D28</f>
         <v>0</v>
       </c>
-      <c r="G24" s="206"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="206"/>
-      <c r="J24" s="206"/>
-      <c r="K24" s="206"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="174"/>
       <c r="L24" s="80"/>
       <c r="M24" s="76">
         <f t="shared" si="0"/>
@@ -4225,15 +4225,15 @@
         <f>requi!C29</f>
         <v>0</v>
       </c>
-      <c r="F25" s="206">
+      <c r="F25" s="174">
         <f>requi!D29</f>
         <v>0</v>
       </c>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="206"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="174"/>
       <c r="L25" s="80"/>
       <c r="M25" s="76">
         <f t="shared" si="0"/>
@@ -4257,15 +4257,15 @@
         <f>requi!C30</f>
         <v>0</v>
       </c>
-      <c r="F26" s="206">
+      <c r="F26" s="174">
         <f>requi!D30</f>
         <v>0</v>
       </c>
-      <c r="G26" s="206"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="206"/>
-      <c r="J26" s="206"/>
-      <c r="K26" s="206"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
       <c r="L26" s="80"/>
       <c r="M26" s="76">
         <f t="shared" si="0"/>
@@ -4289,15 +4289,15 @@
         <f>requi!C31</f>
         <v>0</v>
       </c>
-      <c r="F27" s="206">
+      <c r="F27" s="174">
         <f>requi!D31</f>
         <v>0</v>
       </c>
-      <c r="G27" s="206"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="206"/>
-      <c r="J27" s="206"/>
-      <c r="K27" s="206"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="174"/>
       <c r="L27" s="80"/>
       <c r="M27" s="76">
         <f t="shared" si="0"/>
@@ -4321,15 +4321,15 @@
         <f>requi!C32</f>
         <v>0</v>
       </c>
-      <c r="F28" s="206">
+      <c r="F28" s="174">
         <f>requi!D32</f>
         <v>0</v>
       </c>
-      <c r="G28" s="206"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="206"/>
-      <c r="J28" s="206"/>
-      <c r="K28" s="206"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="174"/>
       <c r="L28" s="80"/>
       <c r="M28" s="76">
         <f t="shared" si="0"/>
@@ -4353,15 +4353,15 @@
         <f>requi!C33</f>
         <v>0</v>
       </c>
-      <c r="F29" s="206">
+      <c r="F29" s="174">
         <f>requi!D33</f>
         <v>0</v>
       </c>
-      <c r="G29" s="206"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="206"/>
-      <c r="J29" s="206"/>
-      <c r="K29" s="206"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="174"/>
       <c r="L29" s="80"/>
       <c r="M29" s="76">
         <f t="shared" si="0"/>
@@ -4385,15 +4385,15 @@
         <f>requi!C34</f>
         <v>0</v>
       </c>
-      <c r="F30" s="206">
+      <c r="F30" s="174">
         <f>requi!D34</f>
         <v>0</v>
       </c>
-      <c r="G30" s="206"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="206"/>
-      <c r="J30" s="206"/>
-      <c r="K30" s="206"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="174"/>
       <c r="L30" s="80"/>
       <c r="M30" s="76">
         <f t="shared" si="0"/>
@@ -4408,12 +4408,12 @@
       <c r="C31" s="78"/>
       <c r="D31" s="82"/>
       <c r="E31" s="83"/>
-      <c r="F31" s="191"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="181"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="221"/>
+      <c r="K31" s="222"/>
       <c r="L31" s="80"/>
       <c r="M31" s="76"/>
       <c r="N31" s="81"/>
@@ -4465,10 +4465,10 @@
       <c r="G34" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="204"/>
-      <c r="I34" s="204"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="205"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
+      <c r="J34" s="235"/>
+      <c r="K34" s="236"/>
       <c r="L34" s="80"/>
       <c r="M34" s="76"/>
       <c r="N34" s="81"/>
@@ -4484,13 +4484,13 @@
       <c r="G35" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="204">
+      <c r="H35" s="235">
         <f>requi!M23</f>
         <v>0</v>
       </c>
-      <c r="I35" s="204"/>
-      <c r="J35" s="204"/>
-      <c r="K35" s="205"/>
+      <c r="I35" s="235"/>
+      <c r="J35" s="235"/>
+      <c r="K35" s="236"/>
       <c r="L35" s="80"/>
       <c r="M35" s="76"/>
       <c r="N35" s="81"/>
@@ -4506,13 +4506,13 @@
       <c r="G36" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="204">
+      <c r="H36" s="235">
         <f>requi!M24</f>
         <v>0</v>
       </c>
-      <c r="I36" s="204"/>
-      <c r="J36" s="204"/>
-      <c r="K36" s="205"/>
+      <c r="I36" s="235"/>
+      <c r="J36" s="235"/>
+      <c r="K36" s="236"/>
       <c r="L36" s="80"/>
       <c r="M36" s="76"/>
       <c r="N36" s="81"/>
@@ -4528,13 +4528,13 @@
       <c r="G37" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="204">
+      <c r="H37" s="235">
         <f>requi!M25</f>
         <v>0</v>
       </c>
-      <c r="I37" s="204"/>
-      <c r="J37" s="204"/>
-      <c r="K37" s="205"/>
+      <c r="I37" s="235"/>
+      <c r="J37" s="235"/>
+      <c r="K37" s="236"/>
       <c r="L37" s="80"/>
       <c r="M37" s="76"/>
       <c r="N37" s="81"/>
@@ -4550,13 +4550,13 @@
       <c r="G38" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="204">
+      <c r="H38" s="235">
         <f>requi!M22</f>
         <v>0</v>
       </c>
-      <c r="I38" s="204"/>
-      <c r="J38" s="204"/>
-      <c r="K38" s="205"/>
+      <c r="I38" s="235"/>
+      <c r="J38" s="235"/>
+      <c r="K38" s="236"/>
       <c r="L38" s="80"/>
       <c r="M38" s="76"/>
       <c r="N38" s="81"/>
@@ -4576,31 +4576,31 @@
       <c r="G39" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="204">
+      <c r="H39" s="235">
         <f>requi!M21</f>
         <v>0</v>
       </c>
-      <c r="I39" s="204"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="205"/>
+      <c r="I39" s="235"/>
+      <c r="J39" s="235"/>
+      <c r="K39" s="236"/>
       <c r="L39" s="80"/>
       <c r="M39" s="76"/>
       <c r="N39" s="81"/>
     </row>
-    <row r="40" spans="2:14" ht="10.9" customHeight="1">
-      <c r="B40" s="192" t="e">
+    <row r="40" spans="2:14" ht="10.95" customHeight="1">
+      <c r="B40" s="223" t="e">
         <f ca="1">PesosMN(M48)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C40" s="193"/>
-      <c r="D40" s="193"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="193"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="193"/>
-      <c r="K40" s="194"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="224"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="224"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="225"/>
       <c r="L40" s="80"/>
       <c r="M40" s="99" t="s">
         <v>29</v>
@@ -4608,18 +4608,18 @@
       <c r="N40" s="100"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="195" t="str">
+      <c r="B41" s="226" t="str">
         <f>C6</f>
         <v>TRITURADOS BASÁLTICOS TEPETLAOXTOC</v>
       </c>
-      <c r="C41" s="196"/>
-      <c r="D41" s="196"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="196"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="196"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="197"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="227"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="227"/>
+      <c r="G41" s="227"/>
+      <c r="H41" s="227"/>
+      <c r="I41" s="227"/>
+      <c r="J41" s="228"/>
       <c r="K41" s="86"/>
       <c r="L41" s="80" t="s">
         <v>29</v>
@@ -4630,21 +4630,21 @@
       <c r="N41" s="100"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="198" t="s">
+      <c r="B42" s="229" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="199"/>
-      <c r="D42" s="199"/>
-      <c r="E42" s="200" t="s">
+      <c r="C42" s="230"/>
+      <c r="D42" s="230"/>
+      <c r="E42" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="201"/>
-      <c r="G42" s="202"/>
-      <c r="H42" s="199" t="s">
+      <c r="F42" s="232"/>
+      <c r="G42" s="233"/>
+      <c r="H42" s="230" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="199"/>
-      <c r="J42" s="203"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="234"/>
       <c r="K42" s="86"/>
       <c r="L42" s="80" t="s">
         <v>29</v>
@@ -4670,21 +4670,21 @@
       <c r="N43" s="109"/>
     </row>
     <row r="44" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B44" s="190" t="s">
+      <c r="B44" s="251" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="176" t="s">
+      <c r="C44" s="240"/>
+      <c r="D44" s="240"/>
+      <c r="E44" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="177"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="177" t="s">
+      <c r="F44" s="240"/>
+      <c r="G44" s="241"/>
+      <c r="H44" s="240" t="s">
         <v>71</v>
       </c>
-      <c r="I44" s="177"/>
-      <c r="J44" s="178"/>
+      <c r="I44" s="240"/>
+      <c r="J44" s="241"/>
       <c r="K44" s="110"/>
       <c r="L44" s="111" t="s">
         <v>72</v>
@@ -4695,18 +4695,18 @@
       </c>
       <c r="N44" s="113"/>
     </row>
-    <row r="45" spans="2:14" ht="14.45" customHeight="1">
-      <c r="B45" s="179" t="s">
+    <row r="45" spans="2:14" ht="14.4" customHeight="1">
+      <c r="B45" s="242" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="180"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="180"/>
-      <c r="G45" s="180"/>
-      <c r="H45" s="180"/>
-      <c r="I45" s="180"/>
-      <c r="J45" s="181"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="221"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="221"/>
+      <c r="H45" s="221"/>
+      <c r="I45" s="221"/>
+      <c r="J45" s="222"/>
       <c r="K45" s="114"/>
       <c r="L45" s="115" t="s">
         <v>74</v>
@@ -4714,7 +4714,7 @@
       <c r="M45" s="112"/>
       <c r="N45" s="113"/>
     </row>
-    <row r="46" spans="2:14" ht="13.15" customHeight="1">
+    <row r="46" spans="2:14" ht="13.2" customHeight="1">
       <c r="B46" s="116"/>
       <c r="C46" s="117"/>
       <c r="D46" s="117"/>
@@ -4731,19 +4731,19 @@
       <c r="M46" s="112"/>
       <c r="N46" s="113"/>
     </row>
-    <row r="47" spans="2:14" ht="11.45" customHeight="1">
+    <row r="47" spans="2:14" ht="11.4" customHeight="1">
       <c r="B47" s="121"/>
       <c r="E47" s="122"/>
       <c r="F47" s="123" t="s">
         <v>76</v>
       </c>
       <c r="G47" s="124"/>
-      <c r="H47" s="182">
+      <c r="H47" s="243">
         <f>+G7</f>
         <v>0</v>
       </c>
-      <c r="I47" s="182"/>
-      <c r="J47" s="183"/>
+      <c r="I47" s="243"/>
+      <c r="J47" s="244"/>
       <c r="K47" s="114"/>
       <c r="L47" s="115" t="s">
         <v>77</v>
@@ -4752,21 +4752,21 @@
       <c r="N47" s="113"/>
     </row>
     <row r="48" spans="2:14" ht="15" customHeight="1" thickBot="1">
-      <c r="B48" s="184" t="s">
+      <c r="B48" s="245" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="185"/>
-      <c r="D48" s="185"/>
-      <c r="E48" s="186" t="s">
+      <c r="C48" s="246"/>
+      <c r="D48" s="246"/>
+      <c r="E48" s="247" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="187"/>
-      <c r="G48" s="188"/>
-      <c r="H48" s="185" t="s">
+      <c r="F48" s="248"/>
+      <c r="G48" s="249"/>
+      <c r="H48" s="246" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="185"/>
-      <c r="J48" s="189"/>
+      <c r="I48" s="246"/>
+      <c r="J48" s="250"/>
       <c r="K48" s="125" t="s">
         <v>29</v>
       </c>
@@ -4779,19 +4779,19 @@
       </c>
       <c r="N48" s="113"/>
     </row>
-    <row r="49" spans="2:14" ht="13.5" thickTop="1">
-      <c r="B49" s="174"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="174"/>
-      <c r="E49" s="174"/>
-      <c r="F49" s="174"/>
-      <c r="G49" s="174"/>
-      <c r="H49" s="174"/>
-      <c r="I49" s="174"/>
-      <c r="J49" s="174"/>
-      <c r="K49" s="174"/>
-      <c r="L49" s="174"/>
-      <c r="M49" s="175"/>
+    <row r="49" spans="2:14" ht="13.8" thickTop="1">
+      <c r="B49" s="237"/>
+      <c r="C49" s="237"/>
+      <c r="D49" s="237"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="237"/>
+      <c r="G49" s="237"/>
+      <c r="H49" s="237"/>
+      <c r="I49" s="237"/>
+      <c r="J49" s="237"/>
+      <c r="K49" s="237"/>
+      <c r="L49" s="237"/>
+      <c r="M49" s="238"/>
       <c r="N49" s="128"/>
     </row>
     <row r="50" spans="2:14">
@@ -4955,30 +4955,27 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
     <mergeCell ref="F30:K30"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F15:K15"/>
@@ -4995,27 +4992,30 @@
     <mergeCell ref="F24:K24"/>
     <mergeCell ref="F25:K25"/>
     <mergeCell ref="F26:K26"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="B49:M49"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
